--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -15,11 +15,18 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -94,6 +101,9 @@
   </si>
   <si>
     <t>VOX</t>
+  </si>
+  <si>
+    <t>Metroscopia</t>
   </si>
 </sst>
 </file>
@@ -442,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L190"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I9:I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,63 +504,61 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43403</v>
+        <v>43408</v>
       </c>
       <c r="B2" s="1">
-        <v>43410</v>
+        <v>43419</v>
       </c>
       <c r="C2">
-        <v>1100</v>
+        <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
-        <v>18.600000000000001</v>
+        <v>20.9</v>
       </c>
       <c r="F2" s="2">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="G2" s="2">
-        <v>22.4</v>
+        <v>21.2</v>
       </c>
       <c r="H2" s="2">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>4.2</v>
-      </c>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43391</v>
+        <v>43412</v>
       </c>
       <c r="B3" s="1">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="C3">
-        <v>3400</v>
+        <v>1803</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>17.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>30.4</v>
+        <v>33.5</v>
       </c>
       <c r="G3" s="2">
-        <v>20.6</v>
+        <v>19.5</v>
       </c>
       <c r="H3" s="2">
-        <v>19.8</v>
+        <v>22.3</v>
       </c>
       <c r="I3" s="2">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -558,31 +566,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43388</v>
+        <v>43403</v>
       </c>
       <c r="B4" s="1">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="C4">
-        <v>4895</v>
+        <v>1100</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>19.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>37.4</v>
+        <v>30.2</v>
       </c>
       <c r="G4" s="2">
-        <v>18.600000000000001</v>
+        <v>22.4</v>
       </c>
       <c r="H4" s="2">
-        <v>18.7</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I4" s="2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -590,30 +598,32 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43397</v>
+        <v>43391</v>
       </c>
       <c r="B5" s="1">
-        <v>43403</v>
+        <v>43410</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
       <c r="F5" s="2">
-        <v>36.700000000000003</v>
+        <v>30.4</v>
       </c>
       <c r="G5" s="2">
-        <v>13.6</v>
+        <v>20.6</v>
       </c>
       <c r="H5" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>19.8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.2</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -623,55 +633,57 @@
         <v>43388</v>
       </c>
       <c r="B6" s="1">
-        <v>43391</v>
+        <v>43404</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>4895</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="G6" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="F6" s="2">
-        <v>36.6</v>
-      </c>
-      <c r="G6" s="2">
-        <v>14</v>
-      </c>
       <c r="H6" s="2">
-        <v>23.4</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>18.7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.2</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43388</v>
+        <v>43397</v>
       </c>
       <c r="B7" s="1">
-        <v>43390</v>
+        <v>43403</v>
       </c>
       <c r="C7">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>21.7</v>
+        <v>19.3</v>
       </c>
       <c r="F7" s="2">
-        <v>29.8</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G7" s="2">
-        <v>22.3</v>
+        <v>13.6</v>
       </c>
       <c r="H7" s="2">
-        <v>20.5</v>
+        <v>23.8</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -680,683 +692,735 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43361</v>
+        <v>43388</v>
       </c>
       <c r="B8" s="1">
-        <v>43381</v>
+        <v>43391</v>
       </c>
       <c r="C8">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>19.02</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F8" s="2">
-        <v>32.83</v>
+        <v>36.6</v>
       </c>
       <c r="G8" s="2">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
+        <v>23.4</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43356</v>
+        <v>43388</v>
       </c>
       <c r="B9" s="1">
-        <v>43359</v>
+        <v>43390</v>
       </c>
       <c r="C9">
-        <v>1100</v>
+        <v>1019</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="F9" s="2">
-        <v>27.1</v>
+        <v>29.8</v>
       </c>
       <c r="G9" s="2">
-        <v>22.9</v>
+        <v>22.3</v>
       </c>
       <c r="H9" s="2">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43257</v>
+        <v>43361</v>
       </c>
       <c r="B10" s="1">
-        <v>43271</v>
+        <v>43381</v>
       </c>
       <c r="C10">
-        <v>3519</v>
+        <v>3200</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
-        <v>14.8</v>
+        <v>19.02</v>
       </c>
       <c r="F10" s="2">
-        <v>38.1</v>
+        <v>32.83</v>
       </c>
       <c r="G10" s="2">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
       <c r="H10" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>23.62</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43245</v>
+        <v>43356</v>
       </c>
       <c r="B11" s="1">
-        <v>43247</v>
+        <v>43359</v>
       </c>
       <c r="C11">
-        <v>4650</v>
+        <v>1100</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>31.5</v>
+        <v>27.1</v>
       </c>
       <c r="G11" s="2">
-        <v>13.1</v>
+        <v>22.9</v>
       </c>
       <c r="H11" s="2">
-        <v>24.2</v>
+        <v>21.6</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K11" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43125</v>
+        <v>43257</v>
       </c>
       <c r="B12" s="1">
-        <v>43166</v>
+        <v>43271</v>
       </c>
       <c r="C12">
-        <v>3200</v>
+        <v>3519</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14.8</v>
       </c>
       <c r="F12" s="2">
-        <v>32.299999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="G12" s="2">
-        <v>17.5</v>
+        <v>21.5</v>
       </c>
       <c r="H12" s="2">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="K12" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43150</v>
+        <v>43245</v>
       </c>
       <c r="B13" s="1">
-        <v>43154</v>
+        <v>43247</v>
       </c>
       <c r="C13">
-        <v>1287</v>
+        <v>4650</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2">
-        <v>34.6</v>
+        <v>31.5</v>
       </c>
       <c r="G13" s="2">
-        <v>19.7</v>
+        <v>13.1</v>
       </c>
       <c r="H13" s="2">
-        <v>25.4</v>
+        <v>24.2</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2">
-        <v>14.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43115</v>
+        <v>43125</v>
       </c>
       <c r="B14" s="1">
-        <v>43149</v>
+        <v>43166</v>
       </c>
       <c r="C14">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2">
-        <v>14.9</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
-        <v>32.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G14" s="2">
-        <v>13.3</v>
+        <v>17.5</v>
       </c>
       <c r="H14" s="2">
-        <v>27.4</v>
+        <v>20.8</v>
       </c>
       <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43137</v>
+        <v>43150</v>
       </c>
       <c r="B15" s="1">
-        <v>43142</v>
+        <v>43154</v>
       </c>
       <c r="C15">
-        <v>2500</v>
+        <v>1287</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
-        <v>33.299999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="G15" s="2">
-        <v>13.9</v>
+        <v>19.7</v>
       </c>
       <c r="H15" s="2">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="K15" s="2">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43132</v>
+        <v>43115</v>
       </c>
       <c r="B16" s="1">
-        <v>43150</v>
+        <v>43149</v>
       </c>
       <c r="C16">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="F16" s="2">
-        <v>36.799999999999997</v>
+        <v>32.1</v>
       </c>
       <c r="G16" s="2">
-        <v>19.3</v>
+        <v>13.3</v>
       </c>
       <c r="H16" s="2">
-        <v>22.5</v>
+        <v>27.4</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43111</v>
+        <v>43137</v>
       </c>
       <c r="B17" s="1">
-        <v>43132</v>
+        <v>43142</v>
       </c>
       <c r="C17">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2">
-        <v>34.1</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G17" s="2">
-        <v>19.8</v>
+        <v>13.9</v>
       </c>
       <c r="H17" s="2">
-        <v>18.3</v>
+        <v>25.6</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2">
-        <v>10.5</v>
+        <v>14.6</v>
       </c>
       <c r="K17" s="2">
-        <v>8.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43119</v>
+        <v>43132</v>
       </c>
       <c r="B18" s="1">
-        <v>43123</v>
+        <v>43150</v>
       </c>
       <c r="C18">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16.5</v>
       </c>
       <c r="F18" s="2">
-        <v>31.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G18" s="2">
-        <v>23</v>
+        <v>19.3</v>
       </c>
       <c r="H18" s="2">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
-        <v>10</v>
-      </c>
-      <c r="K18" s="2">
-        <v>6.5</v>
-      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43073</v>
+        <v>43111</v>
       </c>
       <c r="B19" s="1">
-        <v>43087</v>
+        <v>43132</v>
       </c>
       <c r="C19">
-        <v>2450</v>
+        <v>1200</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>35.9</v>
+        <v>34.1</v>
       </c>
       <c r="G19" s="2">
-        <v>11.8</v>
+        <v>19.8</v>
       </c>
       <c r="H19" s="2">
-        <v>24.8</v>
+        <v>18.3</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2">
-        <v>13.6</v>
+        <v>10.5</v>
       </c>
       <c r="K19" s="2">
-        <v>6.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42919</v>
+        <v>43119</v>
       </c>
       <c r="B20" s="1">
-        <v>42933</v>
+        <v>43123</v>
       </c>
       <c r="C20">
-        <v>2450</v>
+        <v>800</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2">
-        <v>35.799999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="G20" s="2">
-        <v>9.9</v>
+        <v>23</v>
       </c>
       <c r="H20" s="2">
-        <v>25.5</v>
+        <v>23</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
-        <v>15.2</v>
+        <v>10</v>
       </c>
       <c r="K20" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42800</v>
+        <v>43073</v>
       </c>
       <c r="B21" s="1">
-        <v>42805</v>
+        <v>43087</v>
       </c>
       <c r="C21">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2">
-        <v>34.9</v>
+        <v>35.9</v>
       </c>
       <c r="G21" s="2">
-        <v>9.6999999999999993</v>
+        <v>11.8</v>
       </c>
       <c r="H21" s="2">
-        <v>28.1</v>
+        <v>24.8</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="K21" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42780</v>
+        <v>42919</v>
       </c>
       <c r="B22" s="1">
-        <v>42790</v>
+        <v>42933</v>
       </c>
       <c r="C22">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>36.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G22" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="H22" s="2">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="K22" s="2">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42777</v>
+        <v>42800</v>
       </c>
       <c r="B23" s="1">
-        <v>42785</v>
+        <v>42805</v>
       </c>
       <c r="C23">
-        <v>1233</v>
+        <v>1200</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2">
-        <v>39.1</v>
+        <v>34.9</v>
       </c>
       <c r="G23" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H23" s="2">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="K23" s="2">
-        <v>6.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42772</v>
+        <v>42780</v>
       </c>
       <c r="B24" s="1">
-        <v>42782</v>
+        <v>42790</v>
       </c>
       <c r="C24">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>30.9</v>
+        <v>36.6</v>
       </c>
       <c r="G24" s="2">
-        <v>13.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H24" s="2">
-        <v>31.7</v>
+        <v>26.5</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="K24" s="2">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42716</v>
+        <v>42777</v>
       </c>
       <c r="B25" s="1">
-        <v>42727</v>
+        <v>42785</v>
       </c>
       <c r="C25">
-        <v>3600</v>
+        <v>1233</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
-        <v>34.4</v>
+        <v>39.1</v>
       </c>
       <c r="G25" s="2">
-        <v>9.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H25" s="2">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K25" s="2">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42677</v>
+        <v>42772</v>
       </c>
       <c r="B26" s="1">
-        <v>42716</v>
+        <v>42782</v>
       </c>
       <c r="C26">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2">
-        <v>28.6</v>
+        <v>30.9</v>
       </c>
       <c r="G26" s="2">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="H26" s="2">
-        <v>26.2</v>
+        <v>31.7</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>17</v>
+        <v>14.7</v>
       </c>
       <c r="K26" s="2">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42387</v>
+        <v>42716</v>
       </c>
       <c r="B27" s="1">
-        <v>42409</v>
+        <v>42727</v>
       </c>
       <c r="C27">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>32.1</v>
+        <v>34.4</v>
       </c>
       <c r="G27" s="2">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="H27" s="2">
-        <v>25.3</v>
+        <v>27.6</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
-        <v>17.2</v>
+        <v>15.8</v>
       </c>
       <c r="K27" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42254</v>
+        <v>42677</v>
       </c>
       <c r="B28" s="1">
-        <v>42275</v>
+        <v>42716</v>
       </c>
       <c r="C28">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2">
-        <v>37.700000000000003</v>
+        <v>28.6</v>
       </c>
       <c r="G28" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H28" s="2">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2">
-        <v>14.1</v>
+        <v>17</v>
       </c>
       <c r="K28" s="2">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42409</v>
+      </c>
+      <c r="C29">
+        <v>1200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>8</v>
+      </c>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C30">
+        <v>1200</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G30" s="2">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>42085</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>42085</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>4017912</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="2">
         <v>35.43</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G31" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>26.76</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I31" s="2">
         <v>0.2</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J31" s="2">
         <v>14.84</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K31" s="2">
         <v>6.89</v>
       </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H32" s="2"/>
@@ -1993,6 +2057,14 @@
     <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alu.00000\Dropbox\Graficas\EstimacionAndalucia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{0FD6F272-1B80-204C-BF0A-767F269F5502}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -241,6 +242,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,22 +486,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.76171875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,124 +537,124 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43408</v>
+        <v>43409</v>
       </c>
       <c r="B2" s="1">
-        <v>43419</v>
+        <v>43420</v>
       </c>
       <c r="C2">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>20.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F2" s="2">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="G2" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
         <v>21.2</v>
       </c>
-      <c r="H2" s="2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>5.6</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43412</v>
+        <v>43408</v>
       </c>
       <c r="B3" s="1">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="C3">
-        <v>1803</v>
+        <v>4000</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
-        <v>17.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="F3" s="2">
-        <v>33.5</v>
+        <v>30.9</v>
       </c>
       <c r="G3" s="2">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="H3" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3.6</v>
-      </c>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43403</v>
+        <v>43412</v>
       </c>
       <c r="B4" s="1">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="C4">
-        <v>1100</v>
+        <v>1803</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>18.600000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>30.2</v>
+        <v>33.5</v>
       </c>
       <c r="G4" s="2">
-        <v>22.4</v>
+        <v>19.5</v>
       </c>
       <c r="H4" s="2">
-        <v>20.399999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="I4" s="2">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="B5" s="1">
         <v>43410</v>
       </c>
       <c r="C5">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>17.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="G5" s="2">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="H5" s="2">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I5" s="2">
         <v>4.2</v>
@@ -628,494 +663,495 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B6" s="1">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="C6">
-        <v>4895</v>
+        <v>3400</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
       <c r="F6" s="2">
-        <v>37.4</v>
+        <v>30.4</v>
       </c>
       <c r="G6" s="2">
-        <v>18.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="H6" s="2">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="I6" s="2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43397</v>
+        <v>43388</v>
       </c>
       <c r="B7" s="1">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>4895</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>19.3</v>
       </c>
       <c r="F7" s="2">
-        <v>36.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="G7" s="2">
-        <v>13.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>18.7</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.2</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43388</v>
+        <v>43397</v>
       </c>
       <c r="B8" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="C8">
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
-        <v>18.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="F8" s="2">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G8" s="2">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="H8" s="2">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43388</v>
       </c>
       <c r="B9" s="1">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="C9">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>21.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F9" s="2">
-        <v>29.8</v>
+        <v>36.6</v>
       </c>
       <c r="G9" s="2">
-        <v>22.3</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43361</v>
+        <v>43388</v>
       </c>
       <c r="B10" s="1">
-        <v>43381</v>
+        <v>43390</v>
       </c>
       <c r="C10">
-        <v>3200</v>
+        <v>1019</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
-        <v>19.02</v>
+        <v>21.7</v>
       </c>
       <c r="F10" s="2">
-        <v>32.83</v>
+        <v>29.8</v>
       </c>
       <c r="G10" s="2">
-        <v>18.5</v>
+        <v>22.3</v>
       </c>
       <c r="H10" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
+        <v>20.5</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43381</v>
+      </c>
+      <c r="C11">
+        <v>3200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19.02</v>
+      </c>
+      <c r="F11" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>23.62</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>43356</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>43359</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1100</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>21</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>27.1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>22.9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>21.6</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>43257</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>43271</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>3519</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>14.8</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>38.1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>21.5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>19.8</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>43245</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>43247</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>4650</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>31.5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>13.1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>24.2</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K13" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43125</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43166</v>
-      </c>
-      <c r="C14">
-        <v>3200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G14" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>20.8</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <v>13.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K14" s="2">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43150</v>
+        <v>43125</v>
       </c>
       <c r="B15" s="1">
-        <v>43154</v>
+        <v>43166</v>
       </c>
       <c r="C15">
-        <v>1287</v>
+        <v>3200</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>34.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G15" s="2">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="H15" s="2">
-        <v>25.4</v>
+        <v>20.8</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="K15" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43150</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43154</v>
+      </c>
+      <c r="C16">
+        <v>1287</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G16" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
         <v>14.4</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="2">
         <v>3.9</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>43115</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>43149</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1400</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>14.9</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>32.1</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>13.3</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H17" s="2">
         <v>27.4</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>43137</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>43142</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2500</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>13.9</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>25.6</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
         <v>14.6</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="2">
         <v>8</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>43132</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>43150</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>6000</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>16.5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>19.3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>22.5</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>43111</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>43132</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1200</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>34.1</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>19.8</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <v>18.3</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="K19" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43119</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43123</v>
-      </c>
-      <c r="C20">
-        <v>800</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2">
-        <v>23</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K20" s="2">
-        <v>6.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43073</v>
+        <v>43119</v>
       </c>
       <c r="B21" s="1">
-        <v>43087</v>
+        <v>43123</v>
       </c>
       <c r="C21">
-        <v>2450</v>
+        <v>800</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2">
-        <v>35.9</v>
+        <v>31.5</v>
       </c>
       <c r="G21" s="2">
-        <v>11.8</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
-        <v>13.6</v>
+        <v>10</v>
       </c>
       <c r="K21" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>42919</v>
+        <v>43073</v>
       </c>
       <c r="B22" s="1">
-        <v>42933</v>
+        <v>43087</v>
       </c>
       <c r="C22">
         <v>2450</v>
@@ -1124,947 +1160,978 @@
         <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>35.799999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="G22" s="2">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="H22" s="2">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="K22" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>42800</v>
+        <v>42919</v>
       </c>
       <c r="B23" s="1">
-        <v>42805</v>
+        <v>42933</v>
       </c>
       <c r="C23">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2">
-        <v>34.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G23" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H23" s="2">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="K23" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>42780</v>
+        <v>42800</v>
       </c>
       <c r="B24" s="1">
-        <v>42790</v>
+        <v>42805</v>
       </c>
       <c r="C24">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2">
-        <v>36.6</v>
+        <v>34.9</v>
       </c>
       <c r="G24" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H24" s="2">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="K24" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>42777</v>
+        <v>42780</v>
       </c>
       <c r="B25" s="1">
-        <v>42785</v>
+        <v>42790</v>
       </c>
       <c r="C25">
-        <v>1233</v>
+        <v>2400</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2">
-        <v>39.1</v>
+        <v>36.6</v>
       </c>
       <c r="G25" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H25" s="2">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="K25" s="2">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>42772</v>
+        <v>42777</v>
       </c>
       <c r="B26" s="1">
-        <v>42782</v>
+        <v>42785</v>
       </c>
       <c r="C26">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2">
-        <v>30.9</v>
+        <v>39.1</v>
       </c>
       <c r="G26" s="2">
-        <v>13.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H26" s="2">
-        <v>31.7</v>
+        <v>27.3</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="K26" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>42716</v>
+        <v>42772</v>
       </c>
       <c r="B27" s="1">
-        <v>42727</v>
+        <v>42782</v>
       </c>
       <c r="C27">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2">
-        <v>34.4</v>
+        <v>30.9</v>
       </c>
       <c r="G27" s="2">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
       <c r="H27" s="2">
-        <v>27.6</v>
+        <v>31.7</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="K27" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>42677</v>
+        <v>42716</v>
       </c>
       <c r="B28" s="1">
-        <v>42716</v>
+        <v>42727</v>
       </c>
       <c r="C28">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2">
-        <v>28.6</v>
+        <v>34.4</v>
       </c>
       <c r="G28" s="2">
-        <v>12.1</v>
+        <v>9.4</v>
       </c>
       <c r="H28" s="2">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="K28" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>42387</v>
+        <v>42677</v>
       </c>
       <c r="B29" s="1">
-        <v>42409</v>
+        <v>42716</v>
       </c>
       <c r="C29">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="2">
-        <v>32.1</v>
+        <v>28.6</v>
       </c>
       <c r="G29" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="H29" s="2">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="K29" s="2">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>42254</v>
+        <v>42387</v>
       </c>
       <c r="B30" s="1">
-        <v>42275</v>
+        <v>42409</v>
       </c>
       <c r="C30">
         <v>1200</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2">
-        <v>37.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="G30" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>8</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C31">
+        <v>1200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G31" s="2">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
         <v>14.1</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="2">
         <v>5.3</v>
       </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>42085</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>42085</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>4017912</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>35.43</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <v>26.76</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I32" s="2">
         <v>0.2</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J32" s="2">
         <v>14.84</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="2">
         <v>6.89</v>
       </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alu.00000\Dropbox\Graficas\EstimacionAndalucia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{0FD6F272-1B80-204C-BF0A-767F269F5502}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -242,23 +241,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,23 +276,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,22 +451,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.76171875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.76171875" customWidth="1"/>
+    <col min="1" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,156 +502,158 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="B2" s="1">
         <v>43420</v>
       </c>
       <c r="C2">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>20.399999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="F2" s="2">
-        <v>30.6</v>
+        <v>34.6</v>
       </c>
       <c r="G2" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="2">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="I2" s="2">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43408</v>
+        <v>43409</v>
       </c>
       <c r="B3" s="1">
-        <v>43419</v>
+        <v>43420</v>
       </c>
       <c r="C3">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>20.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="G3" s="2">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
         <v>21.2</v>
       </c>
-      <c r="H3" s="2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>5.6</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43412</v>
+        <v>43409</v>
       </c>
       <c r="B4" s="1">
         <v>43418</v>
       </c>
       <c r="C4">
-        <v>1803</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
-        <v>17.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="F4" s="2">
-        <v>33.5</v>
+        <v>30.9</v>
       </c>
       <c r="G4" s="2">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="H4" s="2">
-        <v>22.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43403</v>
+        <v>43412</v>
       </c>
       <c r="B5" s="1">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="C5">
-        <v>1100</v>
+        <v>1803</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
-        <v>18.600000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>30.2</v>
+        <v>33.5</v>
       </c>
       <c r="G5" s="2">
-        <v>22.4</v>
+        <v>19.5</v>
       </c>
       <c r="H5" s="2">
-        <v>20.399999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="I5" s="2">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="B6" s="1">
         <v>43410</v>
       </c>
       <c r="C6">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>17.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="G6" s="2">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="H6" s="2">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I6" s="2">
         <v>4.2</v>
@@ -695,494 +662,495 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B7" s="1">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="C7">
-        <v>4895</v>
+        <v>3400</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
       <c r="F7" s="2">
-        <v>37.4</v>
+        <v>30.4</v>
       </c>
       <c r="G7" s="2">
-        <v>18.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="H7" s="2">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="I7" s="2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43397</v>
+        <v>43388</v>
       </c>
       <c r="B8" s="1">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>4895</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>19.3</v>
       </c>
       <c r="F8" s="2">
-        <v>36.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="G8" s="2">
-        <v>13.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H8" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>18.7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.2</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43388</v>
+        <v>43397</v>
       </c>
       <c r="B9" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="C9">
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>18.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="F9" s="2">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G9" s="2">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="H9" s="2">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43388</v>
       </c>
       <c r="B10" s="1">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="C10">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>21.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F10" s="2">
-        <v>29.8</v>
+        <v>36.6</v>
       </c>
       <c r="G10" s="2">
-        <v>22.3</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43361</v>
+        <v>43388</v>
       </c>
       <c r="B11" s="1">
-        <v>43381</v>
+        <v>43390</v>
       </c>
       <c r="C11">
-        <v>3200</v>
+        <v>1019</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
-        <v>19.02</v>
+        <v>21.7</v>
       </c>
       <c r="F11" s="2">
-        <v>32.83</v>
+        <v>29.8</v>
       </c>
       <c r="G11" s="2">
-        <v>18.5</v>
+        <v>22.3</v>
       </c>
       <c r="H11" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
+        <v>20.5</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43381</v>
+      </c>
+      <c r="C12">
+        <v>3200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
+        <v>19.02</v>
+      </c>
+      <c r="F12" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>23.62</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>43356</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>43359</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1100</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>21</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>27.1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>22.9</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>21.6</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>43257</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>43271</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3519</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>14.8</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>38.1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>21.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>19.8</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>43245</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>43247</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>4650</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>31.5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>13.1</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>24.2</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K14" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43125</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43166</v>
-      </c>
-      <c r="C15">
-        <v>3200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G15" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>20.8</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <v>13.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43150</v>
+        <v>43125</v>
       </c>
       <c r="B16" s="1">
-        <v>43154</v>
+        <v>43166</v>
       </c>
       <c r="C16">
-        <v>1287</v>
+        <v>3200</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
-        <v>34.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G16" s="2">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="H16" s="2">
-        <v>25.4</v>
+        <v>20.8</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43150</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43154</v>
+      </c>
+      <c r="C17">
+        <v>1287</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
         <v>14.4</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K17" s="2">
         <v>3.9</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>43115</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>43149</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1400</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>14.9</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>32.1</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>13.3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>27.4</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>43137</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>43142</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2500</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>13.9</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>25.6</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
         <v>14.6</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="2">
         <v>8</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>43132</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>43150</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>6000</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>16.5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>19.3</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <v>22.5</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>43111</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>43132</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1200</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>34.1</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>19.8</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>18.3</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="K20" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43119</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43123</v>
-      </c>
-      <c r="C21">
-        <v>800</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2">
-        <v>23</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K21" s="2">
-        <v>6.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43073</v>
+        <v>43119</v>
       </c>
       <c r="B22" s="1">
-        <v>43087</v>
+        <v>43123</v>
       </c>
       <c r="C22">
-        <v>2450</v>
+        <v>800</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2">
-        <v>35.9</v>
+        <v>31.5</v>
       </c>
       <c r="G22" s="2">
-        <v>11.8</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2">
-        <v>13.6</v>
+        <v>10</v>
       </c>
       <c r="K22" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42919</v>
+        <v>43073</v>
       </c>
       <c r="B23" s="1">
-        <v>42933</v>
+        <v>43087</v>
       </c>
       <c r="C23">
         <v>2450</v>
@@ -1191,947 +1159,978 @@
         <v>6</v>
       </c>
       <c r="F23" s="2">
-        <v>35.799999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="G23" s="2">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="H23" s="2">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="K23" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42800</v>
+        <v>42919</v>
       </c>
       <c r="B24" s="1">
-        <v>42805</v>
+        <v>42933</v>
       </c>
       <c r="C24">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>34.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G24" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H24" s="2">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="K24" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42780</v>
+        <v>42800</v>
       </c>
       <c r="B25" s="1">
-        <v>42790</v>
+        <v>42805</v>
       </c>
       <c r="C25">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2">
-        <v>36.6</v>
+        <v>34.9</v>
       </c>
       <c r="G25" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H25" s="2">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="K25" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42777</v>
+        <v>42780</v>
       </c>
       <c r="B26" s="1">
-        <v>42785</v>
+        <v>42790</v>
       </c>
       <c r="C26">
-        <v>1233</v>
+        <v>2400</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2">
-        <v>39.1</v>
+        <v>36.6</v>
       </c>
       <c r="G26" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H26" s="2">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="K26" s="2">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42772</v>
+        <v>42777</v>
       </c>
       <c r="B27" s="1">
-        <v>42782</v>
+        <v>42785</v>
       </c>
       <c r="C27">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2">
-        <v>30.9</v>
+        <v>39.1</v>
       </c>
       <c r="G27" s="2">
-        <v>13.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H27" s="2">
-        <v>31.7</v>
+        <v>27.3</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="K27" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42716</v>
+        <v>42772</v>
       </c>
       <c r="B28" s="1">
-        <v>42727</v>
+        <v>42782</v>
       </c>
       <c r="C28">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
-        <v>34.4</v>
+        <v>30.9</v>
       </c>
       <c r="G28" s="2">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
       <c r="H28" s="2">
-        <v>27.6</v>
+        <v>31.7</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="K28" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42677</v>
+        <v>42716</v>
       </c>
       <c r="B29" s="1">
-        <v>42716</v>
+        <v>42727</v>
       </c>
       <c r="C29">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2">
-        <v>28.6</v>
+        <v>34.4</v>
       </c>
       <c r="G29" s="2">
-        <v>12.1</v>
+        <v>9.4</v>
       </c>
       <c r="H29" s="2">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="K29" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42387</v>
+        <v>42677</v>
       </c>
       <c r="B30" s="1">
-        <v>42409</v>
+        <v>42716</v>
       </c>
       <c r="C30">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="2">
-        <v>32.1</v>
+        <v>28.6</v>
       </c>
       <c r="G30" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="H30" s="2">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="K30" s="2">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42254</v>
+        <v>42387</v>
       </c>
       <c r="B31" s="1">
-        <v>42275</v>
+        <v>42409</v>
       </c>
       <c r="C31">
         <v>1200</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2">
-        <v>37.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="G31" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>8</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C32">
+        <v>1200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
         <v>14.1</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="2">
         <v>5.3</v>
       </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>42085</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>42085</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>4017912</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>35.43</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <v>26.76</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I33" s="2">
         <v>0.2</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J33" s="2">
         <v>14.84</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K33" s="2">
         <v>6.89</v>
       </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alu.00000\Dropbox\Graficas\EstimacionAndalucia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4E1558E1-5D7A-9E47-A17F-921D5FB9D5EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -105,11 +106,14 @@
   <si>
     <t>Metroscopia</t>
   </si>
+  <si>
+    <t>Top Position</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -241,6 +245,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,22 +489,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.76171875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,190 +540,190 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="B2" s="1">
-        <v>43420</v>
+        <v>43425</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="F2" s="2">
-        <v>34.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <v>15.5</v>
+        <v>17.8</v>
       </c>
       <c r="H2" s="2">
-        <v>22.8</v>
+        <v>20.5</v>
       </c>
       <c r="I2" s="2">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="B3" s="1">
         <v>43420</v>
       </c>
       <c r="C3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
-        <v>20.399999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="F3" s="2">
-        <v>30.6</v>
+        <v>34.6</v>
       </c>
       <c r="G3" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H3" s="2">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="I3" s="2">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43409</v>
       </c>
       <c r="B4" s="1">
-        <v>43418</v>
+        <v>43420</v>
       </c>
       <c r="C4">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>20.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="G4" s="2">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2">
         <v>21.2</v>
       </c>
-      <c r="H4" s="2">
-        <v>20.100000000000001</v>
-      </c>
       <c r="I4" s="2">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43412</v>
+        <v>43408</v>
       </c>
       <c r="B5" s="1">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="C5">
-        <v>1803</v>
+        <v>4000</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>17.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="F5" s="2">
-        <v>33.5</v>
+        <v>30.9</v>
       </c>
       <c r="G5" s="2">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="H5" s="2">
-        <v>22.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I5" s="2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43403</v>
+        <v>43412</v>
       </c>
       <c r="B6" s="1">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="C6">
-        <v>1100</v>
+        <v>1803</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>18.600000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>30.2</v>
+        <v>33.5</v>
       </c>
       <c r="G6" s="2">
-        <v>22.4</v>
+        <v>19.5</v>
       </c>
       <c r="H6" s="2">
-        <v>20.399999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="I6" s="2">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="B7" s="1">
         <v>43410</v>
       </c>
       <c r="C7">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
-        <v>17.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="G7" s="2">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="H7" s="2">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I7" s="2">
         <v>4.2</v>
@@ -694,494 +732,497 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B8" s="1">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="C8">
-        <v>4895</v>
+        <v>3400</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
       <c r="F8" s="2">
-        <v>37.4</v>
+        <v>30.4</v>
       </c>
       <c r="G8" s="2">
-        <v>18.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="H8" s="2">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="I8" s="2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43397</v>
+        <v>43388</v>
       </c>
       <c r="B9" s="1">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>4895</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>19.3</v>
       </c>
       <c r="F9" s="2">
-        <v>36.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="G9" s="2">
-        <v>13.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>18.7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.2</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43388</v>
+        <v>43397</v>
       </c>
       <c r="B10" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="C10">
         <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>18.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="F10" s="2">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G10" s="2">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="H10" s="2">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43388</v>
       </c>
       <c r="B11" s="1">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="C11">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
-        <v>21.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F11" s="2">
-        <v>29.8</v>
+        <v>36.6</v>
       </c>
       <c r="G11" s="2">
-        <v>22.3</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43361</v>
+        <v>43388</v>
       </c>
       <c r="B12" s="1">
-        <v>43381</v>
+        <v>43390</v>
       </c>
       <c r="C12">
-        <v>3200</v>
+        <v>1019</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
-        <v>19.02</v>
+        <v>21.7</v>
       </c>
       <c r="F12" s="2">
-        <v>32.83</v>
+        <v>29.8</v>
       </c>
       <c r="G12" s="2">
-        <v>18.5</v>
+        <v>22.3</v>
       </c>
       <c r="H12" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
+        <v>20.5</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43381</v>
+      </c>
+      <c r="C13">
+        <v>3200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
+        <v>19.02</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="G13" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>23.62</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>43356</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>43359</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>21</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>27.1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>22.9</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>21.6</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I14" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>43257</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>43271</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3519</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>14.8</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>38.1</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>21.5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>19.8</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>43245</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>43247</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4650</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>31.5</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>13.1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>24.2</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K15" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43125</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43166</v>
-      </c>
-      <c r="C16">
-        <v>3200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G16" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>20.8</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
-        <v>13.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43150</v>
+        <v>43125</v>
       </c>
       <c r="B17" s="1">
-        <v>43154</v>
+        <v>43166</v>
       </c>
       <c r="C17">
-        <v>1287</v>
+        <v>3200</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>34.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G17" s="2">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="H17" s="2">
-        <v>25.4</v>
+        <v>20.8</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43150</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43154</v>
+      </c>
+      <c r="C18">
+        <v>1287</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
         <v>14.4</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="2">
         <v>3.9</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>43115</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>43149</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1400</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>14.9</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>32.1</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>13.3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>27.4</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>43137</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>43142</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2500</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>13.9</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <v>25.6</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
         <v>14.6</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K20" s="2">
         <v>8</v>
       </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>43132</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>43150</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>6000</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>16.5</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>19.3</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>22.5</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>43111</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>43132</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1200</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>34.1</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>19.8</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>18.3</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="K21" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43119</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43123</v>
-      </c>
-      <c r="C22">
-        <v>800</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>23</v>
-      </c>
-      <c r="H22" s="2">
-        <v>23</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K22" s="2">
-        <v>6.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43073</v>
+        <v>43119</v>
       </c>
       <c r="B23" s="1">
-        <v>43087</v>
+        <v>43123</v>
       </c>
       <c r="C23">
-        <v>2450</v>
+        <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
-        <v>35.9</v>
+        <v>31.5</v>
       </c>
       <c r="G23" s="2">
-        <v>11.8</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>13.6</v>
+        <v>10</v>
       </c>
       <c r="K23" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>42919</v>
+        <v>43073</v>
       </c>
       <c r="B24" s="1">
-        <v>42933</v>
+        <v>43087</v>
       </c>
       <c r="C24">
         <v>2450</v>
@@ -1190,947 +1231,1713 @@
         <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>35.799999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="G24" s="2">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="H24" s="2">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="K24" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>42800</v>
+        <v>42919</v>
       </c>
       <c r="B25" s="1">
-        <v>42805</v>
+        <v>42933</v>
       </c>
       <c r="C25">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2">
-        <v>34.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G25" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H25" s="2">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="K25" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>42780</v>
+        <v>42800</v>
       </c>
       <c r="B26" s="1">
-        <v>42790</v>
+        <v>42805</v>
       </c>
       <c r="C26">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2">
-        <v>36.6</v>
+        <v>34.9</v>
       </c>
       <c r="G26" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H26" s="2">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="K26" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>42777</v>
+        <v>42780</v>
       </c>
       <c r="B27" s="1">
-        <v>42785</v>
+        <v>42790</v>
       </c>
       <c r="C27">
-        <v>1233</v>
+        <v>2400</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>39.1</v>
+        <v>36.6</v>
       </c>
       <c r="G27" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H27" s="2">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="K27" s="2">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>42772</v>
+        <v>42777</v>
       </c>
       <c r="B28" s="1">
-        <v>42782</v>
+        <v>42785</v>
       </c>
       <c r="C28">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2">
-        <v>30.9</v>
+        <v>39.1</v>
       </c>
       <c r="G28" s="2">
-        <v>13.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H28" s="2">
-        <v>31.7</v>
+        <v>27.3</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="K28" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>42716</v>
+        <v>42772</v>
       </c>
       <c r="B29" s="1">
-        <v>42727</v>
+        <v>42782</v>
       </c>
       <c r="C29">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2">
-        <v>34.4</v>
+        <v>30.9</v>
       </c>
       <c r="G29" s="2">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
       <c r="H29" s="2">
-        <v>27.6</v>
+        <v>31.7</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="K29" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>42677</v>
+        <v>42716</v>
       </c>
       <c r="B30" s="1">
-        <v>42716</v>
+        <v>42727</v>
       </c>
       <c r="C30">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2">
-        <v>28.6</v>
+        <v>34.4</v>
       </c>
       <c r="G30" s="2">
-        <v>12.1</v>
+        <v>9.4</v>
       </c>
       <c r="H30" s="2">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="K30" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>42387</v>
+        <v>42677</v>
       </c>
       <c r="B31" s="1">
-        <v>42409</v>
+        <v>42716</v>
       </c>
       <c r="C31">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="2">
-        <v>32.1</v>
+        <v>28.6</v>
       </c>
       <c r="G31" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="H31" s="2">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="K31" s="2">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>42254</v>
+        <v>42387</v>
       </c>
       <c r="B32" s="1">
-        <v>42275</v>
+        <v>42409</v>
       </c>
       <c r="C32">
         <v>1200</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2">
-        <v>37.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="G32" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>8</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C33">
+        <v>1200</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G33" s="2">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
         <v>14.1</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K33" s="2">
         <v>5.3</v>
       </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>42085</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>42085</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>4017912</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <v>35.43</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <v>26.76</v>
       </c>
-      <c r="I33" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I34" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J34" s="2">
         <v>14.84</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K34" s="2">
         <v>6.89</v>
       </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190"/>
+      <c r="B190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193"/>
+      <c r="B193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194"/>
+      <c r="B194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alu.00000\Dropbox\Graficas\EstimacionAndalucia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4E1558E1-5D7A-9E47-A17F-921D5FB9D5EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{B71FEE48-F957-8F40-8321-C5991CE4D341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Top Position</t>
+  </si>
+  <si>
+    <t>SigmaDos</t>
+  </si>
+  <si>
+    <t>40dB</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,31 +580,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43416</v>
+        <v>43420</v>
       </c>
       <c r="B3" s="1">
-        <v>43420</v>
+        <v>43424</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
-        <v>21.1</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
-        <v>34.6</v>
+        <v>30.3</v>
       </c>
       <c r="G3" s="2">
-        <v>15.5</v>
+        <v>20.2</v>
       </c>
       <c r="H3" s="2">
-        <v>22.8</v>
+        <v>20.8</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -606,31 +612,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="B4" s="1">
-        <v>43420</v>
+        <v>43423</v>
       </c>
       <c r="C4">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
-        <v>20.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
-        <v>30.6</v>
+        <v>32.1</v>
       </c>
       <c r="G4" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -638,28 +644,28 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43408</v>
+        <v>43410</v>
       </c>
       <c r="B5" s="1">
-        <v>43419</v>
+        <v>43423</v>
       </c>
       <c r="C5">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F5" s="2">
-        <v>30.9</v>
+        <v>35.9</v>
       </c>
       <c r="G5" s="2">
-        <v>21.2</v>
+        <v>14.6</v>
       </c>
       <c r="H5" s="2">
-        <v>20.100000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="I5" s="2">
         <v>3.1</v>
@@ -670,31 +676,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43412</v>
+        <v>43416</v>
       </c>
       <c r="B6" s="1">
-        <v>43418</v>
+        <v>43420</v>
       </c>
       <c r="C6">
-        <v>1803</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2">
-        <v>17.399999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="F6" s="2">
-        <v>33.5</v>
+        <v>34.6</v>
       </c>
       <c r="G6" s="2">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="H6" s="2">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="I6" s="2">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -702,31 +708,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43403</v>
+        <v>43409</v>
       </c>
       <c r="B7" s="1">
-        <v>43410</v>
+        <v>43420</v>
       </c>
       <c r="C7">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2">
-        <v>18.600000000000001</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
       <c r="G7" s="2">
-        <v>22.4</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2">
-        <v>20.399999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="I7" s="2">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -734,31 +740,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43391</v>
+        <v>43408</v>
       </c>
       <c r="B8" s="1">
-        <v>43410</v>
+        <v>43419</v>
       </c>
       <c r="C8">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
-        <v>17.5</v>
+        <v>20.9</v>
       </c>
       <c r="F8" s="2">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="G8" s="2">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="H8" s="2">
-        <v>19.8</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I8" s="2">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -766,31 +772,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43388</v>
+        <v>43412</v>
       </c>
       <c r="B9" s="1">
-        <v>43404</v>
+        <v>43418</v>
       </c>
       <c r="C9">
-        <v>4895</v>
+        <v>1803</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
-        <v>19.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>37.4</v>
+        <v>33.5</v>
       </c>
       <c r="G9" s="2">
-        <v>18.600000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="H9" s="2">
-        <v>18.7</v>
+        <v>22.3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -798,60 +804,64 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43397</v>
+        <v>43403</v>
       </c>
       <c r="B10" s="1">
-        <v>43403</v>
+        <v>43410</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>19.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F10" s="2">
-        <v>36.700000000000003</v>
+        <v>30.2</v>
       </c>
       <c r="G10" s="2">
-        <v>13.6</v>
+        <v>22.4</v>
       </c>
       <c r="H10" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.2</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B11" s="1">
-        <v>43391</v>
+        <v>43410</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>18.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="F11" s="2">
-        <v>36.6</v>
+        <v>30.4</v>
       </c>
       <c r="G11" s="2">
-        <v>14</v>
+        <v>20.6</v>
       </c>
       <c r="H11" s="2">
-        <v>23.4</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>19.8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4.2</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -861,716 +871,796 @@
         <v>43388</v>
       </c>
       <c r="B12" s="1">
-        <v>43390</v>
+        <v>43404</v>
       </c>
       <c r="C12">
-        <v>1019</v>
+        <v>4895</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
-        <v>21.7</v>
+        <v>19.3</v>
       </c>
       <c r="F12" s="2">
-        <v>29.8</v>
+        <v>37.4</v>
       </c>
       <c r="G12" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H12" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>18.7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.2</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43361</v>
+        <v>43397</v>
       </c>
       <c r="B13" s="1">
-        <v>43381</v>
+        <v>43403</v>
       </c>
       <c r="C13">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2">
-        <v>19.02</v>
+        <v>19.3</v>
       </c>
       <c r="F13" s="2">
-        <v>32.83</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G13" s="2">
-        <v>18.5</v>
+        <v>13.6</v>
       </c>
       <c r="H13" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
+        <v>23.8</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43356</v>
+        <v>43388</v>
       </c>
       <c r="B14" s="1">
-        <v>43359</v>
+        <v>43391</v>
       </c>
       <c r="C14">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="G14" s="2">
         <v>14</v>
       </c>
-      <c r="E14" s="2">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2">
-        <v>27.1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>22.9</v>
-      </c>
       <c r="H14" s="2">
-        <v>21.6</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1.4</v>
-      </c>
+        <v>23.4</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43257</v>
+        <v>43388</v>
       </c>
       <c r="B15" s="1">
-        <v>43271</v>
+        <v>43390</v>
       </c>
       <c r="C15">
-        <v>3519</v>
+        <v>1019</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2">
-        <v>14.8</v>
+        <v>21.7</v>
       </c>
       <c r="F15" s="2">
-        <v>38.1</v>
+        <v>29.8</v>
       </c>
       <c r="G15" s="2">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="H15" s="2">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43245</v>
+        <v>43361</v>
       </c>
       <c r="B16" s="1">
-        <v>43247</v>
+        <v>43381</v>
       </c>
       <c r="C16">
-        <v>4650</v>
+        <v>3200</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19.02</v>
       </c>
       <c r="F16" s="2">
-        <v>31.5</v>
+        <v>32.83</v>
       </c>
       <c r="G16" s="2">
-        <v>13.1</v>
+        <v>18.5</v>
       </c>
       <c r="H16" s="2">
-        <v>24.2</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K16" s="2">
-        <v>7.5</v>
-      </c>
+        <v>23.62</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43125</v>
+        <v>43356</v>
       </c>
       <c r="B17" s="1">
-        <v>43166</v>
+        <v>43359</v>
       </c>
       <c r="C17">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <v>21</v>
       </c>
       <c r="F17" s="2">
-        <v>32.299999999999997</v>
+        <v>27.1</v>
       </c>
       <c r="G17" s="2">
-        <v>17.5</v>
+        <v>22.9</v>
       </c>
       <c r="H17" s="2">
-        <v>20.8</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="K17" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="L17" s="2"/>
+        <v>21.6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43150</v>
+        <v>43257</v>
       </c>
       <c r="B18" s="1">
-        <v>43154</v>
+        <v>43271</v>
       </c>
       <c r="C18">
-        <v>1287</v>
+        <v>3519</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14.8</v>
       </c>
       <c r="F18" s="2">
-        <v>34.6</v>
+        <v>38.1</v>
       </c>
       <c r="G18" s="2">
-        <v>19.7</v>
+        <v>21.5</v>
       </c>
       <c r="H18" s="2">
-        <v>25.4</v>
+        <v>19.8</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="K18" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43115</v>
+        <v>43245</v>
       </c>
       <c r="B19" s="1">
-        <v>43149</v>
+        <v>43247</v>
       </c>
       <c r="C19">
-        <v>1400</v>
+        <v>4650</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>32.1</v>
+        <v>31.5</v>
       </c>
       <c r="G19" s="2">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="H19" s="2">
-        <v>27.4</v>
+        <v>24.2</v>
       </c>
       <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K19" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43137</v>
+        <v>43125</v>
       </c>
       <c r="B20" s="1">
-        <v>43142</v>
+        <v>43166</v>
       </c>
       <c r="C20">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>33.299999999999997</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G20" s="2">
-        <v>13.9</v>
+        <v>17.5</v>
       </c>
       <c r="H20" s="2">
-        <v>25.6</v>
+        <v>20.8</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
-        <v>14.6</v>
+        <v>13.8</v>
       </c>
       <c r="K20" s="2">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43132</v>
+        <v>43150</v>
       </c>
       <c r="B21" s="1">
-        <v>43150</v>
+        <v>43154</v>
       </c>
       <c r="C21">
-        <v>6000</v>
+        <v>1287</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2">
-        <v>36.799999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="G21" s="2">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="H21" s="2">
-        <v>22.5</v>
+        <v>25.4</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3.9</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43111</v>
+        <v>43115</v>
       </c>
       <c r="B22" s="1">
-        <v>43132</v>
+        <v>43149</v>
       </c>
       <c r="C22">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14.9</v>
       </c>
       <c r="F22" s="2">
-        <v>34.1</v>
+        <v>32.1</v>
       </c>
       <c r="G22" s="2">
-        <v>19.8</v>
+        <v>13.3</v>
       </c>
       <c r="H22" s="2">
-        <v>18.3</v>
+        <v>27.4</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="K22" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43119</v>
+        <v>43137</v>
       </c>
       <c r="B23" s="1">
-        <v>43123</v>
+        <v>43142</v>
       </c>
       <c r="C23">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2">
-        <v>31.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G23" s="2">
-        <v>23</v>
+        <v>13.9</v>
       </c>
       <c r="H23" s="2">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>10</v>
+        <v>14.6</v>
       </c>
       <c r="K23" s="2">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43073</v>
+        <v>43132</v>
       </c>
       <c r="B24" s="1">
-        <v>43087</v>
+        <v>43150</v>
       </c>
       <c r="C24">
-        <v>2450</v>
+        <v>6000</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
+        <v>16.5</v>
       </c>
       <c r="F24" s="2">
-        <v>35.9</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G24" s="2">
-        <v>11.8</v>
+        <v>19.3</v>
       </c>
       <c r="H24" s="2">
-        <v>24.8</v>
+        <v>22.5</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="K24" s="2">
-        <v>6.4</v>
-      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>42919</v>
+        <v>43111</v>
       </c>
       <c r="B25" s="1">
-        <v>42933</v>
+        <v>43132</v>
       </c>
       <c r="C25">
-        <v>2450</v>
+        <v>1200</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2">
-        <v>35.799999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="G25" s="2">
-        <v>9.9</v>
+        <v>19.8</v>
       </c>
       <c r="H25" s="2">
-        <v>25.5</v>
+        <v>18.3</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>15.2</v>
+        <v>10.5</v>
       </c>
       <c r="K25" s="2">
-        <v>6.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>42800</v>
+        <v>43119</v>
       </c>
       <c r="B26" s="1">
-        <v>42805</v>
+        <v>43123</v>
       </c>
       <c r="C26">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2">
-        <v>34.9</v>
+        <v>31.5</v>
       </c>
       <c r="G26" s="2">
-        <v>9.6999999999999993</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2">
-        <v>28.1</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="K26" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>42780</v>
+        <v>43073</v>
       </c>
       <c r="B27" s="1">
-        <v>42790</v>
+        <v>43087</v>
       </c>
       <c r="C27">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>36.6</v>
+        <v>35.9</v>
       </c>
       <c r="G27" s="2">
-        <v>9.8000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="H27" s="2">
-        <v>26.5</v>
+        <v>24.8</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="K27" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>42777</v>
+        <v>42919</v>
       </c>
       <c r="B28" s="1">
-        <v>42785</v>
+        <v>42933</v>
       </c>
       <c r="C28">
-        <v>1233</v>
+        <v>2450</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2">
-        <v>39.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G28" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H28" s="2">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="K28" s="2">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>42772</v>
+        <v>42800</v>
       </c>
       <c r="B29" s="1">
-        <v>42782</v>
+        <v>42805</v>
       </c>
       <c r="C29">
         <v>1200</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F29" s="2">
-        <v>30.9</v>
+        <v>34.9</v>
       </c>
       <c r="G29" s="2">
-        <v>13.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H29" s="2">
-        <v>31.7</v>
+        <v>28.1</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="K29" s="2">
-        <v>6.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>42716</v>
+        <v>42780</v>
       </c>
       <c r="B30" s="1">
-        <v>42727</v>
+        <v>42790</v>
       </c>
       <c r="C30">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="2">
-        <v>34.4</v>
+        <v>36.6</v>
       </c>
       <c r="G30" s="2">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H30" s="2">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
-        <v>15.8</v>
+        <v>14.2</v>
       </c>
       <c r="K30" s="2">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>42677</v>
+        <v>42777</v>
       </c>
       <c r="B31" s="1">
-        <v>42716</v>
+        <v>42785</v>
       </c>
       <c r="C31">
-        <v>3200</v>
+        <v>1233</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2">
-        <v>28.6</v>
+        <v>39.1</v>
       </c>
       <c r="G31" s="2">
-        <v>12.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H31" s="2">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
-        <v>17</v>
+        <v>14.8</v>
       </c>
       <c r="K31" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>42387</v>
+        <v>42772</v>
       </c>
       <c r="B32" s="1">
-        <v>42409</v>
+        <v>42782</v>
       </c>
       <c r="C32">
         <v>1200</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2">
-        <v>32.1</v>
+        <v>30.9</v>
       </c>
       <c r="G32" s="2">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="H32" s="2">
-        <v>25.3</v>
+        <v>31.7</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
-        <v>17.2</v>
+        <v>14.7</v>
       </c>
       <c r="K32" s="2">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>42254</v>
+        <v>42716</v>
       </c>
       <c r="B33" s="1">
-        <v>42275</v>
+        <v>42727</v>
       </c>
       <c r="C33">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="2">
-        <v>37.700000000000003</v>
+        <v>34.4</v>
       </c>
       <c r="G33" s="2">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="H33" s="2">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2">
-        <v>14.1</v>
+        <v>15.8</v>
       </c>
       <c r="K33" s="2">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
+        <v>42677</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42716</v>
+      </c>
+      <c r="C34">
+        <v>3200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>17</v>
+      </c>
+      <c r="K34" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42409</v>
+      </c>
+      <c r="C35">
+        <v>1200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="K35" s="2">
+        <v>8</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C36">
+        <v>1200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G36" s="2">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>42085</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B37" s="1">
         <v>42085</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>4017912</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F37" s="2">
         <v>35.43</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G37" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H37" s="2">
         <v>26.76</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I37" s="2">
         <v>0.45</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J37" s="2">
         <v>14.84</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K37" s="2">
         <v>6.89</v>
       </c>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H38" s="2"/>
@@ -1617,29 +1707,14 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
@@ -2939,6 +3014,33 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
     </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196"/>
+      <c r="B196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197"/>
+      <c r="B197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alu.00000\Dropbox\Graficas\EstimacionAndalucia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{B71FEE48-F957-8F40-8321-C5991CE4D341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -251,23 +250,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -303,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,22 +460,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.76171875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.76171875" customWidth="1"/>
+    <col min="1" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,1215 +511,1307 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="B2" s="1">
-        <v>43425</v>
+        <v>43427</v>
       </c>
       <c r="C2">
         <v>1200</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
-        <v>21.3</v>
+        <v>18.2</v>
       </c>
       <c r="F2" s="2">
-        <v>32.299999999999997</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
-        <v>17.8</v>
+        <v>13.2</v>
       </c>
       <c r="H2" s="2">
-        <v>20.5</v>
+        <v>24.9</v>
       </c>
       <c r="I2" s="2">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43420</v>
+        <v>43423</v>
       </c>
       <c r="B3" s="1">
-        <v>43424</v>
+        <v>43427</v>
       </c>
       <c r="C3">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>19</v>
+        <v>21.2</v>
       </c>
       <c r="F3" s="2">
-        <v>30.3</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G3" s="2">
-        <v>20.2</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="I3" s="2">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="B4" s="1">
-        <v>43423</v>
+        <v>43427</v>
       </c>
       <c r="C4">
-        <v>1204</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>19</v>
+        <v>21.4</v>
       </c>
       <c r="F4" s="2">
-        <v>32.1</v>
+        <v>34.5</v>
       </c>
       <c r="G4" s="2">
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="H4" s="2">
-        <v>20</v>
+        <v>22.3</v>
       </c>
       <c r="I4" s="2">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43410</v>
+        <v>43416</v>
       </c>
       <c r="B5" s="1">
-        <v>43423</v>
+        <v>43427</v>
       </c>
       <c r="C5">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>21.1</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>35.9</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G5" s="2">
-        <v>14.6</v>
+        <v>16.2</v>
       </c>
       <c r="H5" s="2">
-        <v>21.8</v>
+        <v>22.7</v>
       </c>
       <c r="I5" s="2">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="B6" s="1">
-        <v>43420</v>
+        <v>43425</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="F6" s="2">
-        <v>34.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G6" s="2">
-        <v>15.5</v>
+        <v>17.8</v>
       </c>
       <c r="H6" s="2">
-        <v>22.8</v>
+        <v>20.5</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43409</v>
+        <v>43420</v>
       </c>
       <c r="B7" s="1">
-        <v>43420</v>
+        <v>43424</v>
       </c>
       <c r="C7">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
-        <v>20.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="G7" s="2">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="H7" s="2">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="I7" s="2">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43408</v>
+        <v>43416</v>
       </c>
       <c r="B8" s="1">
-        <v>43419</v>
+        <v>43423</v>
       </c>
       <c r="C8">
-        <v>4000</v>
+        <v>1204</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
-        <v>20.9</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>30.9</v>
+        <v>32.1</v>
       </c>
       <c r="G8" s="2">
-        <v>21.2</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2">
-        <v>20.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="I8" s="2">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43412</v>
+        <v>43410</v>
       </c>
       <c r="B9" s="1">
-        <v>43418</v>
+        <v>43423</v>
       </c>
       <c r="C9">
-        <v>1803</v>
+        <v>2400</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>17.399999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="F9" s="2">
-        <v>33.5</v>
+        <v>35.9</v>
       </c>
       <c r="G9" s="2">
-        <v>19.5</v>
+        <v>14.6</v>
       </c>
       <c r="H9" s="2">
-        <v>22.3</v>
+        <v>21.8</v>
       </c>
       <c r="I9" s="2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43403</v>
+        <v>43416</v>
       </c>
       <c r="B10" s="1">
-        <v>43410</v>
+        <v>43420</v>
       </c>
       <c r="C10">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>18.600000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="F10" s="2">
-        <v>30.2</v>
+        <v>34.6</v>
       </c>
       <c r="G10" s="2">
-        <v>22.4</v>
+        <v>15.5</v>
       </c>
       <c r="H10" s="2">
-        <v>20.399999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="I10" s="2">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43391</v>
+        <v>43409</v>
       </c>
       <c r="B11" s="1">
-        <v>43410</v>
+        <v>43420</v>
       </c>
       <c r="C11">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>17.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="G11" s="2">
-        <v>20.6</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2">
-        <v>19.8</v>
+        <v>21.2</v>
       </c>
       <c r="I11" s="2">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43388</v>
+        <v>43408</v>
       </c>
       <c r="B12" s="1">
-        <v>43404</v>
+        <v>43419</v>
       </c>
       <c r="C12">
-        <v>4895</v>
+        <v>4000</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
-        <v>19.3</v>
+        <v>20.9</v>
       </c>
       <c r="F12" s="2">
-        <v>37.4</v>
+        <v>30.9</v>
       </c>
       <c r="G12" s="2">
-        <v>18.600000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="H12" s="2">
-        <v>18.7</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43397</v>
+        <v>43412</v>
       </c>
       <c r="B13" s="1">
-        <v>43403</v>
+        <v>43418</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>1803</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
-        <v>19.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>36.700000000000003</v>
+        <v>33.5</v>
       </c>
       <c r="G13" s="2">
-        <v>13.6</v>
+        <v>19.5</v>
       </c>
       <c r="H13" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>22.3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.6</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43388</v>
+        <v>43403</v>
       </c>
       <c r="B14" s="1">
-        <v>43391</v>
+        <v>43410</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>18.600000000000001</v>
       </c>
       <c r="F14" s="2">
-        <v>36.6</v>
+        <v>30.2</v>
       </c>
       <c r="G14" s="2">
-        <v>14</v>
+        <v>22.4</v>
       </c>
       <c r="H14" s="2">
-        <v>23.4</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.2</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B15" s="1">
-        <v>43390</v>
+        <v>43410</v>
       </c>
       <c r="C15">
-        <v>1019</v>
+        <v>3400</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>21.7</v>
+        <v>17.5</v>
       </c>
       <c r="F15" s="2">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="G15" s="2">
-        <v>22.3</v>
+        <v>20.6</v>
       </c>
       <c r="H15" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>19.8</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.2</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43361</v>
+        <v>43388</v>
       </c>
       <c r="B16" s="1">
-        <v>43381</v>
+        <v>43404</v>
       </c>
       <c r="C16">
-        <v>3200</v>
+        <v>4895</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
-        <v>19.02</v>
+        <v>19.3</v>
       </c>
       <c r="F16" s="2">
-        <v>32.83</v>
+        <v>37.4</v>
       </c>
       <c r="G16" s="2">
-        <v>18.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H16" s="2">
-        <v>23.62</v>
+        <v>18.7</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43356</v>
+        <v>43397</v>
       </c>
       <c r="B17" s="1">
-        <v>43359</v>
+        <v>43403</v>
       </c>
       <c r="C17">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G17" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43388</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="G18" s="2">
         <v>14</v>
       </c>
-      <c r="E17" s="2">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2">
-        <v>27.1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H17" s="2">
-        <v>21.6</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43257</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43271</v>
-      </c>
-      <c r="C18">
-        <v>3519</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="F18" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>21.5</v>
-      </c>
       <c r="H18" s="2">
-        <v>19.8</v>
+        <v>23.4</v>
       </c>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43245</v>
+        <v>43388</v>
       </c>
       <c r="B19" s="1">
-        <v>43247</v>
+        <v>43390</v>
       </c>
       <c r="C19">
-        <v>4650</v>
+        <v>1019</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="E19" s="2">
+        <v>21.7</v>
       </c>
       <c r="F19" s="2">
-        <v>31.5</v>
+        <v>29.8</v>
       </c>
       <c r="G19" s="2">
-        <v>13.1</v>
+        <v>22.3</v>
       </c>
       <c r="H19" s="2">
-        <v>24.2</v>
+        <v>20.5</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K19" s="2">
-        <v>7.5</v>
-      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43125</v>
+        <v>43361</v>
       </c>
       <c r="B20" s="1">
-        <v>43166</v>
+        <v>43381</v>
       </c>
       <c r="C20">
         <v>3200</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19.02</v>
       </c>
       <c r="F20" s="2">
-        <v>32.299999999999997</v>
+        <v>32.83</v>
       </c>
       <c r="G20" s="2">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="H20" s="2">
-        <v>20.8</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="K20" s="2">
-        <v>6.9</v>
-      </c>
+        <v>23.62</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43150</v>
+        <v>43356</v>
       </c>
       <c r="B21" s="1">
-        <v>43154</v>
+        <v>43359</v>
       </c>
       <c r="C21">
-        <v>1287</v>
+        <v>1100</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21</v>
       </c>
       <c r="F21" s="2">
-        <v>34.6</v>
+        <v>27.1</v>
       </c>
       <c r="G21" s="2">
-        <v>19.7</v>
+        <v>22.9</v>
       </c>
       <c r="H21" s="2">
-        <v>25.4</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="K21" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21.6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43115</v>
+        <v>43257</v>
       </c>
       <c r="B22" s="1">
-        <v>43149</v>
+        <v>43271</v>
       </c>
       <c r="C22">
-        <v>1400</v>
+        <v>3519</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F22" s="2">
-        <v>32.1</v>
+        <v>38.1</v>
       </c>
       <c r="G22" s="2">
-        <v>13.3</v>
+        <v>21.5</v>
       </c>
       <c r="H22" s="2">
-        <v>27.4</v>
+        <v>19.8</v>
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43137</v>
+        <v>43245</v>
       </c>
       <c r="B23" s="1">
-        <v>43142</v>
+        <v>43247</v>
       </c>
       <c r="C23">
-        <v>2500</v>
+        <v>4650</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2">
-        <v>33.299999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="G23" s="2">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="H23" s="2">
-        <v>25.6</v>
+        <v>24.2</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>14.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K23" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43132</v>
+        <v>43125</v>
       </c>
       <c r="B24" s="1">
+        <v>43166</v>
+      </c>
+      <c r="C24">
+        <v>3200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G24" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="K24" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43150</v>
       </c>
-      <c r="C24">
-        <v>6000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="G24" s="2">
-        <v>19.3</v>
-      </c>
-      <c r="H24" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43111</v>
-      </c>
       <c r="B25" s="1">
-        <v>43132</v>
+        <v>43154</v>
       </c>
       <c r="C25">
-        <v>1200</v>
+        <v>1287</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="G25" s="2">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="H25" s="2">
-        <v>18.3</v>
+        <v>25.4</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>10.5</v>
+        <v>14.4</v>
       </c>
       <c r="K25" s="2">
-        <v>8.3000000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43119</v>
+        <v>43115</v>
       </c>
       <c r="B26" s="1">
-        <v>43123</v>
+        <v>43149</v>
       </c>
       <c r="C26">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="2">
+        <v>14.9</v>
       </c>
       <c r="F26" s="2">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="G26" s="2">
-        <v>23</v>
+        <v>13.3</v>
       </c>
       <c r="H26" s="2">
-        <v>23</v>
+        <v>27.4</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2">
-        <v>10</v>
-      </c>
-      <c r="K26" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43073</v>
+        <v>43137</v>
       </c>
       <c r="B27" s="1">
-        <v>43087</v>
+        <v>43142</v>
       </c>
       <c r="C27">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2">
-        <v>35.9</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G27" s="2">
-        <v>11.8</v>
+        <v>13.9</v>
       </c>
       <c r="H27" s="2">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
-        <v>13.6</v>
+        <v>14.6</v>
       </c>
       <c r="K27" s="2">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42919</v>
+        <v>43132</v>
       </c>
       <c r="B28" s="1">
-        <v>42933</v>
+        <v>43150</v>
       </c>
       <c r="C28">
-        <v>2450</v>
+        <v>6000</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="E28" s="2">
+        <v>16.5</v>
       </c>
       <c r="F28" s="2">
-        <v>35.799999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G28" s="2">
-        <v>9.9</v>
+        <v>19.3</v>
       </c>
       <c r="H28" s="2">
-        <v>25.5</v>
+        <v>22.5</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2">
-        <v>15.2</v>
-      </c>
-      <c r="K28" s="2">
-        <v>6.6</v>
-      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42800</v>
+        <v>43111</v>
       </c>
       <c r="B29" s="1">
-        <v>42805</v>
+        <v>43132</v>
       </c>
       <c r="C29">
         <v>1200</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2">
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
       <c r="G29" s="2">
-        <v>9.6999999999999993</v>
+        <v>19.8</v>
       </c>
       <c r="H29" s="2">
-        <v>28.1</v>
+        <v>18.3</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="K29" s="2">
-        <v>5.0999999999999996</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42780</v>
+        <v>43119</v>
       </c>
       <c r="B30" s="1">
-        <v>42790</v>
+        <v>43123</v>
       </c>
       <c r="C30">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2">
-        <v>36.6</v>
+        <v>31.5</v>
       </c>
       <c r="G30" s="2">
-        <v>9.8000000000000007</v>
+        <v>23</v>
       </c>
       <c r="H30" s="2">
-        <v>26.5</v>
+        <v>23</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
-        <v>14.2</v>
+        <v>10</v>
       </c>
       <c r="K30" s="2">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42777</v>
+        <v>43073</v>
       </c>
       <c r="B31" s="1">
-        <v>42785</v>
+        <v>43087</v>
       </c>
       <c r="C31">
-        <v>1233</v>
+        <v>2450</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F31" s="2">
-        <v>39.1</v>
+        <v>35.9</v>
       </c>
       <c r="G31" s="2">
-        <v>8.1999999999999993</v>
+        <v>11.8</v>
       </c>
       <c r="H31" s="2">
-        <v>27.3</v>
+        <v>24.8</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="K31" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42772</v>
+        <v>42919</v>
       </c>
       <c r="B32" s="1">
-        <v>42782</v>
+        <v>42933</v>
       </c>
       <c r="C32">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2">
-        <v>30.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G32" s="2">
-        <v>13.1</v>
+        <v>9.9</v>
       </c>
       <c r="H32" s="2">
-        <v>31.7</v>
+        <v>25.5</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="K32" s="2">
         <v>6.6</v>
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42716</v>
+        <v>42800</v>
       </c>
       <c r="B33" s="1">
-        <v>42727</v>
+        <v>42805</v>
       </c>
       <c r="C33">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="G33" s="2">
-        <v>9.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H33" s="2">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2">
-        <v>15.8</v>
+        <v>14.5</v>
       </c>
       <c r="K33" s="2">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42677</v>
+        <v>42780</v>
       </c>
       <c r="B34" s="1">
-        <v>42716</v>
+        <v>42790</v>
       </c>
       <c r="C34">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F34" s="2">
-        <v>28.6</v>
+        <v>36.6</v>
       </c>
       <c r="G34" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H34" s="2">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2">
-        <v>17</v>
+        <v>14.2</v>
       </c>
       <c r="K34" s="2">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42387</v>
+        <v>42777</v>
       </c>
       <c r="B35" s="1">
-        <v>42409</v>
+        <v>42785</v>
       </c>
       <c r="C35">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2">
-        <v>32.1</v>
+        <v>39.1</v>
       </c>
       <c r="G35" s="2">
-        <v>13</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H35" s="2">
-        <v>25.3</v>
+        <v>27.3</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2">
-        <v>17.2</v>
+        <v>14.8</v>
       </c>
       <c r="K35" s="2">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42254</v>
+        <v>42772</v>
       </c>
       <c r="B36" s="1">
-        <v>42275</v>
+        <v>42782</v>
       </c>
       <c r="C36">
         <v>1200</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2">
-        <v>37.700000000000003</v>
+        <v>30.9</v>
       </c>
       <c r="G36" s="2">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="H36" s="2">
-        <v>25.8</v>
+        <v>31.7</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="K36" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42716</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42727</v>
+      </c>
+      <c r="C37">
+        <v>3600</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H37" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="K37" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42677</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42716</v>
+      </c>
+      <c r="C38">
+        <v>3200</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42409</v>
+      </c>
+      <c r="C39">
+        <v>1200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>8</v>
+      </c>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C40">
+        <v>1200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G40" s="2">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
         <v>14.1</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K40" s="2">
         <v>5.3</v>
       </c>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>42085</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B41" s="1">
         <v>42085</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>4017912</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F41" s="2">
         <v>35.43</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G41" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H41" s="2">
         <v>26.76</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I41" s="2">
         <v>0.45</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J41" s="2">
         <v>14.84</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K41" s="2">
         <v>6.89</v>
       </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="E56"/>
@@ -1763,7 +1820,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="E57"/>
@@ -1772,7 +1829,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="E58"/>
@@ -1781,7 +1838,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="E59"/>
@@ -1790,7 +1847,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="E60"/>
@@ -1799,7 +1856,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="E61"/>
@@ -1808,7 +1865,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="E62"/>
@@ -1817,7 +1874,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="E63"/>
@@ -1826,7 +1883,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="E64"/>
@@ -1835,7 +1892,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="E65"/>
@@ -1844,7 +1901,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="E66"/>
@@ -1853,7 +1910,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="E67"/>
@@ -1862,7 +1919,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="E68"/>
@@ -1871,7 +1928,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="E69"/>
@@ -1880,7 +1937,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="E70"/>
@@ -1889,7 +1946,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="E71"/>
@@ -1898,7 +1955,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="E72"/>
@@ -1907,7 +1964,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="E73"/>
@@ -1916,7 +1973,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="E74"/>
@@ -1925,7 +1982,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="E75"/>
@@ -1934,7 +1991,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="E76"/>
@@ -1943,7 +2000,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="E77"/>
@@ -1952,7 +2009,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="E78"/>
@@ -1961,7 +2018,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="E79"/>
@@ -1970,7 +2027,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="E80"/>
@@ -1979,7 +2036,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="E81"/>
@@ -1988,7 +2045,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="E82"/>
@@ -1997,7 +2054,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="E83"/>
@@ -2006,7 +2063,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="E84"/>
@@ -2015,7 +2072,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="E85"/>
@@ -2024,7 +2081,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="E86"/>
@@ -2033,7 +2090,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="E87"/>
@@ -2042,7 +2099,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="E88"/>
@@ -2051,7 +2108,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="E89"/>
@@ -2060,7 +2117,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="E90"/>
@@ -2069,7 +2126,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="E91"/>
@@ -2078,7 +2135,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="E92"/>
@@ -2087,7 +2144,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="E93"/>
@@ -2096,7 +2153,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="E94"/>
@@ -2105,7 +2162,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="E95"/>
@@ -2114,7 +2171,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="E96"/>
@@ -2123,7 +2180,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="E97"/>
@@ -2132,7 +2189,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="E98"/>
@@ -2141,7 +2198,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="E99"/>
@@ -2150,7 +2207,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="E100"/>
@@ -2159,7 +2216,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="E101"/>
@@ -2168,7 +2225,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="E102"/>
@@ -2177,7 +2234,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="E103"/>
@@ -2186,7 +2243,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="E104"/>
@@ -2195,7 +2252,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="E105"/>
@@ -2204,7 +2261,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="E106"/>
@@ -2213,7 +2270,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="E107"/>
@@ -2222,7 +2279,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="E108"/>
@@ -2231,7 +2288,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="E109"/>
@@ -2240,7 +2297,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="E110"/>
@@ -2249,7 +2306,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="E111"/>
@@ -2258,7 +2315,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="E112"/>
@@ -2267,7 +2324,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="E113"/>
@@ -2276,7 +2333,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="E114"/>
@@ -2285,7 +2342,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="E115"/>
@@ -2294,7 +2351,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="E116"/>
@@ -2303,7 +2360,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="E117"/>
@@ -2312,7 +2369,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="E118"/>
@@ -2321,7 +2378,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="E119"/>
@@ -2330,7 +2387,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="E120"/>
@@ -2339,7 +2396,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="E121"/>
@@ -2348,7 +2405,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="E122"/>
@@ -2357,7 +2414,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="E123"/>
@@ -2366,7 +2423,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="E124"/>
@@ -2375,7 +2432,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="E125"/>
@@ -2384,7 +2441,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="E126"/>
@@ -2393,7 +2450,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="E127"/>
@@ -2402,7 +2459,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="E128"/>
@@ -2411,7 +2468,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="E129"/>
@@ -2420,7 +2477,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="E130"/>
@@ -2429,7 +2486,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="E131"/>
@@ -2438,7 +2495,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="E132"/>
@@ -2447,7 +2504,7 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="E133"/>
@@ -2456,7 +2513,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="E134"/>
@@ -2465,7 +2522,7 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="E135"/>
@@ -2474,7 +2531,7 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="E136"/>
@@ -2483,7 +2540,7 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="E137"/>
@@ -2492,7 +2549,7 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="E138"/>
@@ -2501,7 +2558,7 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="E139"/>
@@ -2510,7 +2567,7 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="E140"/>
@@ -2519,7 +2576,7 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="E141"/>
@@ -2528,7 +2585,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="E142"/>
@@ -2537,7 +2594,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="E143"/>
@@ -2546,7 +2603,7 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="E144"/>
@@ -2555,7 +2612,7 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="E145"/>
@@ -2564,7 +2621,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146"/>
       <c r="E146"/>
@@ -2573,7 +2630,7 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="E147"/>
@@ -2582,7 +2639,7 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148"/>
       <c r="E148"/>
@@ -2591,7 +2648,7 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="E149"/>
@@ -2600,7 +2657,7 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150"/>
       <c r="E150"/>
@@ -2609,7 +2666,7 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151"/>
       <c r="E151"/>
@@ -2618,7 +2675,7 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152"/>
       <c r="B152"/>
       <c r="E152"/>
@@ -2627,7 +2684,7 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153"/>
       <c r="B153"/>
       <c r="E153"/>
@@ -2636,7 +2693,7 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154"/>
       <c r="B154"/>
       <c r="E154"/>
@@ -2645,7 +2702,7 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155"/>
       <c r="E155"/>
@@ -2654,7 +2711,7 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156"/>
       <c r="E156"/>
@@ -2663,7 +2720,7 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="E157"/>
@@ -2672,7 +2729,7 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158"/>
       <c r="E158"/>
@@ -2681,7 +2738,7 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159"/>
       <c r="B159"/>
       <c r="E159"/>
@@ -2690,7 +2747,7 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="E160"/>
@@ -2699,7 +2756,7 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="E161"/>
@@ -2708,7 +2765,7 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162"/>
       <c r="B162"/>
       <c r="E162"/>
@@ -2717,7 +2774,7 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="E163"/>
@@ -2726,7 +2783,7 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="E164"/>
@@ -2735,7 +2792,7 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="E165"/>
@@ -2744,7 +2801,7 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="E166"/>
@@ -2753,7 +2810,7 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167"/>
       <c r="E167"/>
@@ -2762,7 +2819,7 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="E168"/>
@@ -2771,7 +2828,7 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="E169"/>
@@ -2780,7 +2837,7 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170"/>
       <c r="B170"/>
       <c r="E170"/>
@@ -2789,7 +2846,7 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171"/>
       <c r="B171"/>
       <c r="E171"/>
@@ -2798,7 +2855,7 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="E172"/>
@@ -2807,7 +2864,7 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173"/>
       <c r="B173"/>
       <c r="E173"/>
@@ -2816,7 +2873,7 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="E174"/>
@@ -2825,7 +2882,7 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175"/>
       <c r="B175"/>
       <c r="E175"/>
@@ -2834,7 +2891,7 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176"/>
       <c r="B176"/>
       <c r="E176"/>
@@ -2843,7 +2900,7 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="E177"/>
@@ -2852,7 +2909,7 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178"/>
       <c r="B178"/>
       <c r="E178"/>
@@ -2861,7 +2918,7 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="E179"/>
@@ -2870,7 +2927,7 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="B180"/>
       <c r="E180"/>
@@ -2879,7 +2936,7 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181"/>
       <c r="B181"/>
       <c r="E181"/>
@@ -2888,7 +2945,7 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="B182"/>
       <c r="E182"/>
@@ -2897,7 +2954,7 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="E183"/>
@@ -2906,7 +2963,7 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184"/>
       <c r="E184"/>
@@ -2915,7 +2972,7 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="B185"/>
       <c r="E185"/>
@@ -2924,7 +2981,7 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186"/>
       <c r="E186"/>
@@ -2933,7 +2990,7 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187"/>
       <c r="E187"/>
@@ -2942,7 +2999,7 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
       <c r="E188"/>
@@ -2951,7 +3008,7 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
       <c r="E189"/>
@@ -2960,7 +3017,7 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190"/>
       <c r="E190"/>
@@ -2969,7 +3026,7 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="E191"/>
@@ -2978,7 +3035,7 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="B192"/>
       <c r="E192"/>
@@ -2987,7 +3044,7 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193"/>
       <c r="E193"/>
@@ -2996,7 +3053,7 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194"/>
       <c r="E194"/>
@@ -3005,7 +3062,7 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195"/>
       <c r="E195"/>
@@ -3014,7 +3071,7 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196"/>
       <c r="E196"/>
@@ -3023,7 +3080,7 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197"/>
       <c r="E197"/>
@@ -3032,7 +3089,7 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="B198"/>
       <c r="E198"/>
@@ -3041,6 +3098,42 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
     </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201"/>
+      <c r="B201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+      <c r="B202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,31 +513,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="B2" s="1">
         <v>43427</v>
       </c>
       <c r="C2">
-        <v>1200</v>
+        <v>5300</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>18.2</v>
+        <v>21.87</v>
       </c>
       <c r="F2" s="2">
-        <v>36</v>
+        <v>31.9</v>
       </c>
       <c r="G2" s="2">
-        <v>13.2</v>
+        <v>13.89</v>
       </c>
       <c r="H2" s="2">
-        <v>24.9</v>
+        <v>23.59</v>
       </c>
       <c r="I2" s="2">
-        <v>2.8</v>
+        <v>4.09</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -545,31 +545,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="B3" s="1">
         <v>43427</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
-        <v>21.2</v>
+        <v>18.2</v>
       </c>
       <c r="F3" s="2">
-        <v>35.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
-        <v>15</v>
+        <v>13.2</v>
       </c>
       <c r="H3" s="2">
-        <v>21.6</v>
+        <v>24.9</v>
       </c>
       <c r="I3" s="2">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -586,22 +586,22 @@
         <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F4" s="2">
-        <v>34.5</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G4" s="2">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="I4" s="2">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -609,31 +609,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="B5" s="1">
         <v>43427</v>
       </c>
       <c r="C5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>18.600000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="F5" s="2">
-        <v>32.799999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="G5" s="2">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="H5" s="2">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="I5" s="2">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -641,31 +641,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43423</v>
+        <v>43416</v>
       </c>
       <c r="B6" s="1">
-        <v>43425</v>
+        <v>43427</v>
       </c>
       <c r="C6">
         <v>1200</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>21.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>32.299999999999997</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G6" s="2">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
       <c r="H6" s="2">
-        <v>20.5</v>
+        <v>22.7</v>
       </c>
       <c r="I6" s="2">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -673,31 +673,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43420</v>
+        <v>43423</v>
       </c>
       <c r="B7" s="1">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="C7">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
-        <v>19</v>
+        <v>21.3</v>
       </c>
       <c r="F7" s="2">
-        <v>30.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G7" s="2">
-        <v>20.2</v>
+        <v>17.8</v>
       </c>
       <c r="H7" s="2">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="I7" s="2">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -705,31 +705,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43416</v>
+        <v>43420</v>
       </c>
       <c r="B8" s="1">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="C8">
-        <v>1204</v>
+        <v>2500</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>32.1</v>
+        <v>30.3</v>
       </c>
       <c r="G8" s="2">
-        <v>18</v>
+        <v>20.2</v>
       </c>
       <c r="H8" s="2">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="I8" s="2">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -737,31 +737,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43410</v>
+        <v>43416</v>
       </c>
       <c r="B9" s="1">
         <v>43423</v>
       </c>
       <c r="C9">
-        <v>2400</v>
+        <v>1204</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
-        <v>21.1</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>35.9</v>
+        <v>32.1</v>
       </c>
       <c r="G9" s="2">
-        <v>14.6</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -769,31 +769,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43416</v>
+        <v>43410</v>
       </c>
       <c r="B10" s="1">
-        <v>43420</v>
+        <v>43423</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>21.1</v>
       </c>
       <c r="F10" s="2">
-        <v>34.6</v>
+        <v>35.9</v>
       </c>
       <c r="G10" s="2">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="H10" s="2">
-        <v>22.8</v>
+        <v>21.8</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -801,31 +801,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="B11" s="1">
         <v>43420</v>
       </c>
       <c r="C11">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
-        <v>20.399999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="F11" s="2">
-        <v>30.6</v>
+        <v>34.6</v>
       </c>
       <c r="G11" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H11" s="2">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="I11" s="2">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -833,31 +833,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43408</v>
+        <v>43409</v>
       </c>
       <c r="B12" s="1">
-        <v>43419</v>
+        <v>43420</v>
       </c>
       <c r="C12">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
-        <v>20.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F12" s="2">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="G12" s="2">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2">
         <v>21.2</v>
       </c>
-      <c r="H12" s="2">
-        <v>20.100000000000001</v>
-      </c>
       <c r="I12" s="2">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -865,31 +865,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43412</v>
+        <v>43408</v>
       </c>
       <c r="B13" s="1">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="C13">
-        <v>1803</v>
+        <v>4000</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2">
-        <v>17.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="F13" s="2">
-        <v>33.5</v>
+        <v>30.9</v>
       </c>
       <c r="G13" s="2">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="H13" s="2">
-        <v>22.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -897,31 +897,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43403</v>
+        <v>43412</v>
       </c>
       <c r="B14" s="1">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="C14">
-        <v>1100</v>
+        <v>1803</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
-        <v>18.600000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>30.2</v>
+        <v>33.5</v>
       </c>
       <c r="G14" s="2">
-        <v>22.4</v>
+        <v>19.5</v>
       </c>
       <c r="H14" s="2">
-        <v>20.399999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="I14" s="2">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -929,28 +929,28 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="B15" s="1">
         <v>43410</v>
       </c>
       <c r="C15">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>17.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F15" s="2">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="G15" s="2">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="H15" s="2">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I15" s="2">
         <v>4.2</v>
@@ -961,31 +961,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B16" s="1">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="C16">
-        <v>4895</v>
+        <v>3400</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
       <c r="F16" s="2">
-        <v>37.4</v>
+        <v>30.4</v>
       </c>
       <c r="G16" s="2">
-        <v>18.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="H16" s="2">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="I16" s="2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -993,58 +993,60 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43397</v>
+        <v>43388</v>
       </c>
       <c r="B17" s="1">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>4895</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>19.3</v>
       </c>
       <c r="F17" s="2">
-        <v>36.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="G17" s="2">
-        <v>13.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H17" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>18.7</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3.2</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43388</v>
+        <v>43397</v>
       </c>
       <c r="B18" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>18.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="F18" s="2">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G18" s="2">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="H18" s="2">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1056,25 +1058,25 @@
         <v>43388</v>
       </c>
       <c r="B19" s="1">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="C19">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>21.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F19" s="2">
-        <v>29.8</v>
+        <v>36.6</v>
       </c>
       <c r="G19" s="2">
-        <v>22.3</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1083,372 +1085,371 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43361</v>
+        <v>43388</v>
       </c>
       <c r="B20" s="1">
-        <v>43381</v>
+        <v>43390</v>
       </c>
       <c r="C20">
-        <v>3200</v>
+        <v>1019</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2">
-        <v>19.02</v>
+        <v>21.7</v>
       </c>
       <c r="F20" s="2">
-        <v>32.83</v>
+        <v>29.8</v>
       </c>
       <c r="G20" s="2">
-        <v>18.5</v>
+        <v>22.3</v>
       </c>
       <c r="H20" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
+        <v>20.5</v>
+      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43356</v>
+        <v>43361</v>
       </c>
       <c r="B21" s="1">
-        <v>43359</v>
+        <v>43381</v>
       </c>
       <c r="C21">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
-        <v>21</v>
+        <v>19.02</v>
       </c>
       <c r="F21" s="2">
-        <v>27.1</v>
+        <v>32.83</v>
       </c>
       <c r="G21" s="2">
-        <v>22.9</v>
+        <v>18.5</v>
       </c>
       <c r="H21" s="2">
-        <v>21.6</v>
+        <v>23.62</v>
       </c>
       <c r="I21" s="2">
-        <v>1.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43257</v>
+        <v>43356</v>
       </c>
       <c r="B22" s="1">
-        <v>43271</v>
+        <v>43359</v>
       </c>
       <c r="C22">
-        <v>3519</v>
+        <v>1100</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
-        <v>14.8</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2">
-        <v>38.1</v>
+        <v>27.1</v>
       </c>
       <c r="G22" s="2">
-        <v>21.5</v>
+        <v>22.9</v>
       </c>
       <c r="H22" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>21.6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43245</v>
+        <v>43257</v>
       </c>
       <c r="B23" s="1">
-        <v>43247</v>
+        <v>43271</v>
       </c>
       <c r="C23">
-        <v>4650</v>
+        <v>3519</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
+        <v>14.8</v>
       </c>
       <c r="F23" s="2">
-        <v>31.5</v>
+        <v>38.1</v>
       </c>
       <c r="G23" s="2">
-        <v>13.1</v>
+        <v>21.5</v>
       </c>
       <c r="H23" s="2">
-        <v>24.2</v>
+        <v>19.8</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K23" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43125</v>
+        <v>43245</v>
       </c>
       <c r="B24" s="1">
-        <v>43166</v>
+        <v>43247</v>
       </c>
       <c r="C24">
-        <v>3200</v>
+        <v>4650</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2">
-        <v>32.299999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="G24" s="2">
-        <v>17.5</v>
+        <v>13.1</v>
       </c>
       <c r="H24" s="2">
-        <v>20.8</v>
+        <v>24.2</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>13.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K24" s="2">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43150</v>
+        <v>43125</v>
       </c>
       <c r="B25" s="1">
-        <v>43154</v>
+        <v>43166</v>
       </c>
       <c r="C25">
-        <v>1287</v>
+        <v>3200</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2">
-        <v>34.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G25" s="2">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="H25" s="2">
-        <v>25.4</v>
+        <v>20.8</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="K25" s="2">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43115</v>
+        <v>43150</v>
       </c>
       <c r="B26" s="1">
-        <v>43149</v>
+        <v>43154</v>
       </c>
       <c r="C26">
-        <v>1400</v>
+        <v>1287</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="2">
-        <v>14.9</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2">
-        <v>32.1</v>
+        <v>34.6</v>
       </c>
       <c r="G26" s="2">
-        <v>13.3</v>
+        <v>19.7</v>
       </c>
       <c r="H26" s="2">
-        <v>27.4</v>
+        <v>25.4</v>
       </c>
       <c r="I26" s="2"/>
+      <c r="J26" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43137</v>
+        <v>43115</v>
       </c>
       <c r="B27" s="1">
-        <v>43142</v>
+        <v>43149</v>
       </c>
       <c r="C27">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="2">
+        <v>14.9</v>
       </c>
       <c r="F27" s="2">
-        <v>33.299999999999997</v>
+        <v>32.1</v>
       </c>
       <c r="G27" s="2">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="H27" s="2">
-        <v>25.6</v>
+        <v>27.4</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="K27" s="2">
-        <v>8</v>
-      </c>
-      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43132</v>
+        <v>43137</v>
       </c>
       <c r="B28" s="1">
-        <v>43150</v>
+        <v>43142</v>
       </c>
       <c r="C28">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="2">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2">
-        <v>36.799999999999997</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G28" s="2">
-        <v>19.3</v>
+        <v>13.9</v>
       </c>
       <c r="H28" s="2">
-        <v>22.5</v>
+        <v>25.6</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="K28" s="2">
+        <v>8</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43111</v>
+        <v>43132</v>
       </c>
       <c r="B29" s="1">
-        <v>43132</v>
+        <v>43150</v>
       </c>
       <c r="C29">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>16.5</v>
       </c>
       <c r="F29" s="2">
-        <v>34.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G29" s="2">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="H29" s="2">
-        <v>18.3</v>
+        <v>22.5</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="K29" s="2">
-        <v>8.3000000000000007</v>
-      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43119</v>
+        <v>43111</v>
       </c>
       <c r="B30" s="1">
-        <v>43123</v>
+        <v>43132</v>
       </c>
       <c r="C30">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2">
-        <v>31.5</v>
+        <v>34.1</v>
       </c>
       <c r="G30" s="2">
-        <v>23</v>
+        <v>19.8</v>
       </c>
       <c r="H30" s="2">
-        <v>23</v>
+        <v>18.3</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K30" s="2">
-        <v>6.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43073</v>
+        <v>43119</v>
       </c>
       <c r="B31" s="1">
-        <v>43087</v>
+        <v>43123</v>
       </c>
       <c r="C31">
-        <v>2450</v>
+        <v>800</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>35.9</v>
+        <v>31.5</v>
       </c>
       <c r="G31" s="2">
-        <v>11.8</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
-        <v>13.6</v>
+        <v>10</v>
       </c>
       <c r="K31" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42919</v>
+        <v>43073</v>
       </c>
       <c r="B32" s="1">
-        <v>42933</v>
+        <v>43087</v>
       </c>
       <c r="C32">
         <v>2450</v>
@@ -1457,307 +1458,334 @@
         <v>6</v>
       </c>
       <c r="F32" s="2">
-        <v>35.799999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="G32" s="2">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="H32" s="2">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="K32" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42800</v>
+        <v>42919</v>
       </c>
       <c r="B33" s="1">
-        <v>42805</v>
+        <v>42933</v>
       </c>
       <c r="C33">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="2">
-        <v>34.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G33" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H33" s="2">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="K33" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42780</v>
+        <v>42800</v>
       </c>
       <c r="B34" s="1">
-        <v>42790</v>
+        <v>42805</v>
       </c>
       <c r="C34">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" s="2">
-        <v>36.6</v>
+        <v>34.9</v>
       </c>
       <c r="G34" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H34" s="2">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="K34" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42777</v>
+        <v>42780</v>
       </c>
       <c r="B35" s="1">
-        <v>42785</v>
+        <v>42790</v>
       </c>
       <c r="C35">
-        <v>1233</v>
+        <v>2400</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2">
-        <v>39.1</v>
+        <v>36.6</v>
       </c>
       <c r="G35" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H35" s="2">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="K35" s="2">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42772</v>
+        <v>42777</v>
       </c>
       <c r="B36" s="1">
-        <v>42782</v>
+        <v>42785</v>
       </c>
       <c r="C36">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2">
-        <v>30.9</v>
+        <v>39.1</v>
       </c>
       <c r="G36" s="2">
-        <v>13.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H36" s="2">
-        <v>31.7</v>
+        <v>27.3</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="K36" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42716</v>
+        <v>42772</v>
       </c>
       <c r="B37" s="1">
-        <v>42727</v>
+        <v>42782</v>
       </c>
       <c r="C37">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2">
-        <v>34.4</v>
+        <v>30.9</v>
       </c>
       <c r="G37" s="2">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
       <c r="H37" s="2">
-        <v>27.6</v>
+        <v>31.7</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="K37" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42677</v>
+        <v>42716</v>
       </c>
       <c r="B38" s="1">
-        <v>42716</v>
+        <v>42727</v>
       </c>
       <c r="C38">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F38" s="2">
-        <v>28.6</v>
+        <v>34.4</v>
       </c>
       <c r="G38" s="2">
-        <v>12.1</v>
+        <v>9.4</v>
       </c>
       <c r="H38" s="2">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="K38" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42387</v>
+        <v>42677</v>
       </c>
       <c r="B39" s="1">
-        <v>42409</v>
+        <v>42716</v>
       </c>
       <c r="C39">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="2">
-        <v>32.1</v>
+        <v>28.6</v>
       </c>
       <c r="G39" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="H39" s="2">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="K39" s="2">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42254</v>
+        <v>42387</v>
       </c>
       <c r="B40" s="1">
-        <v>42275</v>
+        <v>42409</v>
       </c>
       <c r="C40">
         <v>1200</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2">
-        <v>37.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="G40" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="2">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2">
-        <v>14.1</v>
+        <v>17.2</v>
       </c>
       <c r="K40" s="2">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C41">
+        <v>1200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G41" s="2">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>42085</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>42085</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>4017912</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="2">
         <v>35.43</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H42" s="2">
         <v>26.76</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I42" s="2">
         <v>0.45</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J42" s="2">
         <v>14.84</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K42" s="2">
         <v>6.89</v>
       </c>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="2"/>
@@ -1812,11 +1840,6 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
@@ -3134,6 +3157,15 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
     </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+      <c r="B203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Andalucia18-2D/EncuestasAndalucia2.xlsx
+++ b/Andalucia18-2D/EncuestasAndalucia2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,31 +513,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43425</v>
+        <v>43423</v>
       </c>
       <c r="B2" s="1">
-        <v>43427</v>
+        <v>43430</v>
       </c>
       <c r="C2">
-        <v>5300</v>
+        <v>2900</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>21.87</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F2" s="2">
-        <v>31.9</v>
+        <v>32.6</v>
       </c>
       <c r="G2" s="2">
-        <v>13.89</v>
+        <v>19.3</v>
       </c>
       <c r="H2" s="2">
-        <v>23.59</v>
+        <v>20.7</v>
       </c>
       <c r="I2" s="2">
-        <v>4.09</v>
+        <v>6.8</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -545,31 +545,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="B3" s="1">
         <v>43427</v>
       </c>
       <c r="C3">
-        <v>1200</v>
+        <v>5300</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
-        <v>18.2</v>
+        <v>21.87</v>
       </c>
       <c r="F3" s="2">
-        <v>36</v>
+        <v>31.9</v>
       </c>
       <c r="G3" s="2">
-        <v>13.2</v>
+        <v>13.89</v>
       </c>
       <c r="H3" s="2">
-        <v>24.9</v>
+        <v>23.59</v>
       </c>
       <c r="I3" s="2">
-        <v>2.8</v>
+        <v>4.09</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -577,31 +577,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="B4" s="1">
         <v>43427</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
-        <v>21.2</v>
+        <v>18.2</v>
       </c>
       <c r="F4" s="2">
-        <v>35.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
-        <v>15</v>
+        <v>13.2</v>
       </c>
       <c r="H4" s="2">
-        <v>21.6</v>
+        <v>24.9</v>
       </c>
       <c r="I4" s="2">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -618,22 +618,22 @@
         <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F5" s="2">
-        <v>34.5</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G5" s="2">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="I5" s="2">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -641,31 +641,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="B6" s="1">
         <v>43427</v>
       </c>
       <c r="C6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2">
-        <v>18.600000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="F6" s="2">
-        <v>32.799999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="G6" s="2">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="H6" s="2">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="I6" s="2">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -673,31 +673,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43423</v>
+        <v>43416</v>
       </c>
       <c r="B7" s="1">
-        <v>43425</v>
+        <v>43427</v>
       </c>
       <c r="C7">
         <v>1200</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
-        <v>21.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>32.299999999999997</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G7" s="2">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
       <c r="H7" s="2">
-        <v>20.5</v>
+        <v>22.7</v>
       </c>
       <c r="I7" s="2">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -705,31 +705,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43420</v>
+        <v>43423</v>
       </c>
       <c r="B8" s="1">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="C8">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
-        <v>19</v>
+        <v>21.3</v>
       </c>
       <c r="F8" s="2">
-        <v>30.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G8" s="2">
-        <v>20.2</v>
+        <v>17.8</v>
       </c>
       <c r="H8" s="2">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="I8" s="2">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -737,31 +737,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43416</v>
+        <v>43420</v>
       </c>
       <c r="B9" s="1">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="C9">
-        <v>1204</v>
+        <v>2500</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>32.1</v>
+        <v>30.3</v>
       </c>
       <c r="G9" s="2">
-        <v>18</v>
+        <v>20.2</v>
       </c>
       <c r="H9" s="2">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="I9" s="2">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -769,31 +769,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43410</v>
+        <v>43416</v>
       </c>
       <c r="B10" s="1">
         <v>43423</v>
       </c>
       <c r="C10">
-        <v>2400</v>
+        <v>1204</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2">
-        <v>21.1</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
-        <v>35.9</v>
+        <v>32.1</v>
       </c>
       <c r="G10" s="2">
-        <v>14.6</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -801,31 +801,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43416</v>
+        <v>43410</v>
       </c>
       <c r="B11" s="1">
-        <v>43420</v>
+        <v>43423</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2">
         <v>21.1</v>
       </c>
       <c r="F11" s="2">
-        <v>34.6</v>
+        <v>35.9</v>
       </c>
       <c r="G11" s="2">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="H11" s="2">
-        <v>22.8</v>
+        <v>21.8</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -833,31 +833,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="B12" s="1">
         <v>43420</v>
       </c>
       <c r="C12">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
-        <v>20.399999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="F12" s="2">
-        <v>30.6</v>
+        <v>34.6</v>
       </c>
       <c r="G12" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H12" s="2">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="I12" s="2">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -865,31 +865,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43408</v>
+        <v>43409</v>
       </c>
       <c r="B13" s="1">
-        <v>43419</v>
+        <v>43420</v>
       </c>
       <c r="C13">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
-        <v>20.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="G13" s="2">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2">
         <v>21.2</v>
       </c>
-      <c r="H13" s="2">
-        <v>20.100000000000001</v>
-      </c>
       <c r="I13" s="2">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -897,31 +897,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43412</v>
+        <v>43408</v>
       </c>
       <c r="B14" s="1">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="C14">
-        <v>1803</v>
+        <v>4000</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2">
-        <v>17.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="F14" s="2">
-        <v>33.5</v>
+        <v>30.9</v>
       </c>
       <c r="G14" s="2">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="H14" s="2">
-        <v>22.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I14" s="2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -929,31 +929,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43403</v>
+        <v>43412</v>
       </c>
       <c r="B15" s="1">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="C15">
-        <v>1100</v>
+        <v>1803</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2">
-        <v>18.600000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>30.2</v>
+        <v>33.5</v>
       </c>
       <c r="G15" s="2">
-        <v>22.4</v>
+        <v>19.5</v>
       </c>
       <c r="H15" s="2">
-        <v>20.399999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="I15" s="2">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -961,28 +961,28 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="B16" s="1">
         <v>43410</v>
       </c>
       <c r="C16">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
-        <v>17.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="G16" s="2">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="H16" s="2">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I16" s="2">
         <v>4.2</v>
@@ -993,31 +993,31 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B17" s="1">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="C17">
-        <v>4895</v>
+        <v>3400</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
-        <v>19.3</v>
+        <v>17.5</v>
       </c>
       <c r="F17" s="2">
-        <v>37.4</v>
+        <v>30.4</v>
       </c>
       <c r="G17" s="2">
-        <v>18.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="H17" s="2">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="I17" s="2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1025,58 +1025,60 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43397</v>
+        <v>43388</v>
       </c>
       <c r="B18" s="1">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>4895</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
         <v>19.3</v>
       </c>
       <c r="F18" s="2">
-        <v>36.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="G18" s="2">
-        <v>13.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H18" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>18.7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.2</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43388</v>
+        <v>43397</v>
       </c>
       <c r="B19" s="1">
-        <v>43391</v>
+        <v>43403</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>18.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="F19" s="2">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G19" s="2">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="H19" s="2">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1088,25 +1090,25 @@
         <v>43388</v>
       </c>
       <c r="B20" s="1">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="C20">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
-        <v>21.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>29.8</v>
+        <v>36.6</v>
       </c>
       <c r="G20" s="2">
-        <v>22.3</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1115,372 +1117,371 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43361</v>
+        <v>43388</v>
       </c>
       <c r="B21" s="1">
-        <v>43381</v>
+        <v>43390</v>
       </c>
       <c r="C21">
-        <v>3200</v>
+        <v>1019</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2">
-        <v>19.02</v>
+        <v>21.7</v>
       </c>
       <c r="F21" s="2">
-        <v>32.83</v>
+        <v>29.8</v>
       </c>
       <c r="G21" s="2">
-        <v>18.5</v>
+        <v>22.3</v>
       </c>
       <c r="H21" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
+        <v>20.5</v>
+      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43356</v>
+        <v>43361</v>
       </c>
       <c r="B22" s="1">
-        <v>43359</v>
+        <v>43381</v>
       </c>
       <c r="C22">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
-        <v>21</v>
+        <v>19.02</v>
       </c>
       <c r="F22" s="2">
-        <v>27.1</v>
+        <v>32.83</v>
       </c>
       <c r="G22" s="2">
-        <v>22.9</v>
+        <v>18.5</v>
       </c>
       <c r="H22" s="2">
-        <v>21.6</v>
+        <v>23.62</v>
       </c>
       <c r="I22" s="2">
-        <v>1.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43257</v>
+        <v>43356</v>
       </c>
       <c r="B23" s="1">
-        <v>43271</v>
+        <v>43359</v>
       </c>
       <c r="C23">
-        <v>3519</v>
+        <v>1100</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
-        <v>14.8</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2">
-        <v>38.1</v>
+        <v>27.1</v>
       </c>
       <c r="G23" s="2">
-        <v>21.5</v>
+        <v>22.9</v>
       </c>
       <c r="H23" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>21.6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43245</v>
+        <v>43257</v>
       </c>
       <c r="B24" s="1">
-        <v>43247</v>
+        <v>43271</v>
       </c>
       <c r="C24">
-        <v>4650</v>
+        <v>3519</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14.8</v>
       </c>
       <c r="F24" s="2">
-        <v>31.5</v>
+        <v>38.1</v>
       </c>
       <c r="G24" s="2">
-        <v>13.1</v>
+        <v>21.5</v>
       </c>
       <c r="H24" s="2">
-        <v>24.2</v>
+        <v>19.8</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K24" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43125</v>
+        <v>43245</v>
       </c>
       <c r="B25" s="1">
-        <v>43166</v>
+        <v>43247</v>
       </c>
       <c r="C25">
-        <v>3200</v>
+        <v>4650</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2">
-        <v>32.299999999999997</v>
+        <v>31.5</v>
       </c>
       <c r="G25" s="2">
-        <v>17.5</v>
+        <v>13.1</v>
       </c>
       <c r="H25" s="2">
-        <v>20.8</v>
+        <v>24.2</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
-        <v>13.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K25" s="2">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43150</v>
+        <v>43125</v>
       </c>
       <c r="B26" s="1">
-        <v>43154</v>
+        <v>43166</v>
       </c>
       <c r="C26">
-        <v>1287</v>
+        <v>3200</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>34.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G26" s="2">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="H26" s="2">
-        <v>25.4</v>
+        <v>20.8</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="K26" s="2">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43115</v>
+        <v>43150</v>
       </c>
       <c r="B27" s="1">
-        <v>43149</v>
+        <v>43154</v>
       </c>
       <c r="C27">
-        <v>1400</v>
+        <v>1287</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2">
-        <v>14.9</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2">
-        <v>32.1</v>
+        <v>34.6</v>
       </c>
       <c r="G27" s="2">
-        <v>13.3</v>
+        <v>19.7</v>
       </c>
       <c r="H27" s="2">
-        <v>27.4</v>
+        <v>25.4</v>
       </c>
       <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43137</v>
+        <v>43115</v>
       </c>
       <c r="B28" s="1">
-        <v>43142</v>
+        <v>43149</v>
       </c>
       <c r="C28">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="E28" s="2">
+        <v>14.9</v>
       </c>
       <c r="F28" s="2">
-        <v>33.299999999999997</v>
+        <v>32.1</v>
       </c>
       <c r="G28" s="2">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="H28" s="2">
-        <v>25.6</v>
+        <v>27.4</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="K28" s="2">
-        <v>8</v>
-      </c>
-      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43132</v>
+        <v>43137</v>
       </c>
       <c r="B29" s="1">
-        <v>43150</v>
+        <v>43142</v>
       </c>
       <c r="C29">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="2">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="F29" s="2">
-        <v>36.799999999999997</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G29" s="2">
-        <v>19.3</v>
+        <v>13.9</v>
       </c>
       <c r="H29" s="2">
-        <v>22.5</v>
+        <v>25.6</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="J29" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="K29" s="2">
+        <v>8</v>
+      </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43111</v>
+        <v>43132</v>
       </c>
       <c r="B30" s="1">
-        <v>43132</v>
+        <v>43150</v>
       </c>
       <c r="C30">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>16.5</v>
       </c>
       <c r="F30" s="2">
-        <v>34.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G30" s="2">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="H30" s="2">
-        <v>18.3</v>
+        <v>22.5</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="K30" s="2">
-        <v>8.3000000000000007</v>
-      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43119</v>
+        <v>43111</v>
       </c>
       <c r="B31" s="1">
-        <v>43123</v>
+        <v>43132</v>
       </c>
       <c r="C31">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2">
-        <v>31.5</v>
+        <v>34.1</v>
       </c>
       <c r="G31" s="2">
-        <v>23</v>
+        <v>19.8</v>
       </c>
       <c r="H31" s="2">
-        <v>23</v>
+        <v>18.3</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K31" s="2">
-        <v>6.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43073</v>
+        <v>43119</v>
       </c>
       <c r="B32" s="1">
-        <v>43087</v>
+        <v>43123</v>
       </c>
       <c r="C32">
-        <v>2450</v>
+        <v>800</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2">
-        <v>35.9</v>
+        <v>31.5</v>
       </c>
       <c r="G32" s="2">
-        <v>11.8</v>
+        <v>23</v>
       </c>
       <c r="H32" s="2">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
-        <v>13.6</v>
+        <v>10</v>
       </c>
       <c r="K32" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42919</v>
+        <v>43073</v>
       </c>
       <c r="B33" s="1">
-        <v>42933</v>
+        <v>43087</v>
       </c>
       <c r="C33">
         <v>2450</v>
@@ -1489,307 +1490,334 @@
         <v>6</v>
       </c>
       <c r="F33" s="2">
-        <v>35.799999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="G33" s="2">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="H33" s="2">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="K33" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42800</v>
+        <v>42919</v>
       </c>
       <c r="B34" s="1">
-        <v>42805</v>
+        <v>42933</v>
       </c>
       <c r="C34">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="2">
-        <v>34.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G34" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H34" s="2">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="K34" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42780</v>
+        <v>42800</v>
       </c>
       <c r="B35" s="1">
-        <v>42790</v>
+        <v>42805</v>
       </c>
       <c r="C35">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2">
-        <v>36.6</v>
+        <v>34.9</v>
       </c>
       <c r="G35" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H35" s="2">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="K35" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42777</v>
+        <v>42780</v>
       </c>
       <c r="B36" s="1">
-        <v>42785</v>
+        <v>42790</v>
       </c>
       <c r="C36">
-        <v>1233</v>
+        <v>2400</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F36" s="2">
-        <v>39.1</v>
+        <v>36.6</v>
       </c>
       <c r="G36" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H36" s="2">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="K36" s="2">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42772</v>
+        <v>42777</v>
       </c>
       <c r="B37" s="1">
-        <v>42782</v>
+        <v>42785</v>
       </c>
       <c r="C37">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2">
-        <v>30.9</v>
+        <v>39.1</v>
       </c>
       <c r="G37" s="2">
-        <v>13.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H37" s="2">
-        <v>31.7</v>
+        <v>27.3</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="K37" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42716</v>
+        <v>42772</v>
       </c>
       <c r="B38" s="1">
-        <v>42727</v>
+        <v>42782</v>
       </c>
       <c r="C38">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2">
-        <v>34.4</v>
+        <v>30.9</v>
       </c>
       <c r="G38" s="2">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
       <c r="H38" s="2">
-        <v>27.6</v>
+        <v>31.7</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="K38" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42677</v>
+        <v>42716</v>
       </c>
       <c r="B39" s="1">
-        <v>42716</v>
+        <v>42727</v>
       </c>
       <c r="C39">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F39" s="2">
-        <v>28.6</v>
+        <v>34.4</v>
       </c>
       <c r="G39" s="2">
-        <v>12.1</v>
+        <v>9.4</v>
       </c>
       <c r="H39" s="2">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="K39" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42387</v>
+        <v>42677</v>
       </c>
       <c r="B40" s="1">
-        <v>42409</v>
+        <v>42716</v>
       </c>
       <c r="C40">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="2">
-        <v>32.1</v>
+        <v>28.6</v>
       </c>
       <c r="G40" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="H40" s="2">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="K40" s="2">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42254</v>
+        <v>42387</v>
       </c>
       <c r="B41" s="1">
-        <v>42275</v>
+        <v>42409</v>
       </c>
       <c r="C41">
         <v>1200</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2">
-        <v>37.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="G41" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" s="2">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2">
-        <v>14.1</v>
+        <v>17.2</v>
       </c>
       <c r="K41" s="2">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C42">
+        <v>1200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G42" s="2">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42085</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>42085</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>4017912</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <v>35.43</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G43" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H43" s="2">
         <v>26.76</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I43" s="2">
         <v>0.45</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J43" s="2">
         <v>14.84</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K43" s="2">
         <v>6.89</v>
       </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44" s="2"/>
@@ -1844,11 +1872,6 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
@@ -3166,6 +3189,15 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
     </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+      <c r="B204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
